--- a/Input00.xlsx
+++ b/Input00.xlsx
@@ -1,41 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCTemp\GPHH for Matrix Shop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCTemp\GPHH-Matrix-Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC9DCE8-E51D-4153-B525-25A5CA032C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4815FC-0FE4-4495-997C-DEE7A785DCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="1710" windowWidth="23025" windowHeight="18630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
     <sheet name="Station" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="50">
   <si>
     <t>工序能力需求代号列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +232,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,7 +288,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -577,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:E51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -622,11 +616,13 @@
         <v>40</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <f ca="1">RAND()*100</f>
+        <v>69.779182904832396</v>
       </c>
       <c r="E2" s="1">
         <v>4</v>
       </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -639,11 +635,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <f t="shared" ref="D3:D20" ca="1" si="0">RAND()*100</f>
+        <v>68.696512868602539</v>
       </c>
       <c r="E3" s="1">
         <v>11</v>
       </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -656,11 +654,13 @@
         <v>16</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.9976417433885572</v>
       </c>
       <c r="E4" s="1">
         <v>7</v>
       </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -673,11 +673,13 @@
         <v>18</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>74.714437244901063</v>
       </c>
       <c r="E5" s="1">
         <v>6</v>
       </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -690,11 +692,13 @@
         <v>42</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43.08171339190686</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
       </c>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -707,11 +711,13 @@
         <v>10</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>68.511567402385097</v>
       </c>
       <c r="E7" s="1">
         <v>8</v>
       </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -724,11 +730,13 @@
         <v>17</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>95.571059004928443</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
       </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -741,11 +749,13 @@
         <v>31</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>23.936143372935202</v>
       </c>
       <c r="E9" s="1">
         <v>7</v>
       </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -758,11 +768,13 @@
         <v>16</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>54.727850876648802</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
       </c>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -775,11 +787,13 @@
         <v>39</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>52.082159950520911</v>
       </c>
       <c r="E11" s="1">
         <v>12</v>
       </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -792,11 +806,13 @@
         <v>15</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>59.214203082700337</v>
       </c>
       <c r="E12" s="1">
         <v>20</v>
       </c>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -809,11 +825,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>97.318066548683149</v>
       </c>
       <c r="E13" s="1">
         <v>13</v>
       </c>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -826,11 +844,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>62.33755222306209</v>
       </c>
       <c r="E14" s="1">
         <v>14</v>
       </c>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -843,11 +863,13 @@
         <v>44</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41.807444274418316</v>
       </c>
       <c r="E15" s="1">
         <v>13</v>
       </c>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -860,13 +882,15 @@
         <v>37</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>56.16656069628683</v>
       </c>
       <c r="E16" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -877,13 +901,15 @@
         <v>36</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>68.050660232722322</v>
       </c>
       <c r="E17" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -894,13 +920,15 @@
         <v>18</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>97.984387706923798</v>
       </c>
       <c r="E18" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -911,13 +939,14 @@
         <v>26</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <f t="shared" ref="D19" ca="1" si="1">RAND()*100</f>
+        <v>48.891567552249647</v>
       </c>
       <c r="E19" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -928,13 +957,14 @@
         <v>27</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36.93400095173206</v>
       </c>
       <c r="E20" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -945,13 +975,14 @@
         <v>28</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <f t="shared" ref="D21:D84" ca="1" si="2">RAND()*100</f>
+        <v>15.833209279030635</v>
       </c>
       <c r="E21" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -961,14 +992,15 @@
       <c r="C22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="1">
-        <v>0</v>
+      <c r="D22" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.7569740573173731</v>
       </c>
       <c r="E22" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -978,14 +1010,15 @@
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="1">
-        <v>0</v>
+      <c r="D23" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>18.68701202356403</v>
       </c>
       <c r="E23" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -995,14 +1028,15 @@
       <c r="C24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="1">
-        <v>0</v>
+      <c r="D24" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>96.159112296692726</v>
       </c>
       <c r="E24" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1012,14 +1046,15 @@
       <c r="C25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="1">
-        <v>0</v>
+      <c r="D25" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>31.578947700454108</v>
       </c>
       <c r="E25" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1029,14 +1064,15 @@
       <c r="C26" s="1">
         <v>6</v>
       </c>
-      <c r="D26" s="1">
-        <v>0</v>
+      <c r="D26" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>64.811467971718201</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1046,14 +1082,15 @@
       <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="1">
-        <v>0</v>
+      <c r="D27" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>63.85027305137222</v>
       </c>
       <c r="E27" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1063,14 +1100,15 @@
       <c r="C28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="1">
-        <v>0</v>
+      <c r="D28" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>16.675765069292392</v>
       </c>
       <c r="E28" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1080,14 +1118,15 @@
       <c r="C29" s="1">
         <v>2</v>
       </c>
-      <c r="D29" s="1">
-        <v>0</v>
+      <c r="D29" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>25.720552185899137</v>
       </c>
       <c r="E29" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1097,14 +1136,15 @@
       <c r="C30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="1">
-        <v>0</v>
+      <c r="D30" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>61.073431444008122</v>
       </c>
       <c r="E30" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1114,14 +1154,15 @@
       <c r="C31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="1">
-        <v>0</v>
+      <c r="D31" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1506382106007851</v>
       </c>
       <c r="E31" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1131,8 +1172,9 @@
       <c r="C32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="1">
-        <v>0</v>
+      <c r="D32" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>74.787285146546395</v>
       </c>
       <c r="E32" s="1">
         <v>20</v>
@@ -1148,8 +1190,9 @@
       <c r="C33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="1">
-        <v>0</v>
+      <c r="D33" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>91.790212860899615</v>
       </c>
       <c r="E33" s="1">
         <v>13</v>
@@ -1165,8 +1208,9 @@
       <c r="C34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="1">
-        <v>0</v>
+      <c r="D34" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>67.411109254315207</v>
       </c>
       <c r="E34" s="1">
         <v>14</v>
@@ -1182,8 +1226,9 @@
       <c r="C35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="1">
-        <v>0</v>
+      <c r="D35" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>96.011918164886993</v>
       </c>
       <c r="E35" s="1">
         <v>13</v>
@@ -1199,8 +1244,9 @@
       <c r="C36" s="1">
         <v>3</v>
       </c>
-      <c r="D36" s="1">
-        <v>0</v>
+      <c r="D36" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>89.396418420488729</v>
       </c>
       <c r="E36" s="1">
         <v>20</v>
@@ -1216,8 +1262,9 @@
       <c r="C37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="1">
-        <v>0</v>
+      <c r="D37" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.5559645770524164</v>
       </c>
       <c r="E37" s="1">
         <v>21</v>
@@ -1233,8 +1280,9 @@
       <c r="C38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="1">
-        <v>0</v>
+      <c r="D38" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>19.042952959359916</v>
       </c>
       <c r="E38" s="1">
         <v>25</v>
@@ -1250,8 +1298,9 @@
       <c r="C39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="1">
-        <v>0</v>
+      <c r="D39" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>42.476191467872958</v>
       </c>
       <c r="E39" s="1">
         <v>19</v>
@@ -1267,8 +1316,9 @@
       <c r="C40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="1">
-        <v>0</v>
+      <c r="D40" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>34.419166028672507</v>
       </c>
       <c r="E40" s="1">
         <v>30</v>
@@ -1284,8 +1334,9 @@
       <c r="C41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="1">
-        <v>0</v>
+      <c r="D41" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>57.732230000082488</v>
       </c>
       <c r="E41" s="1">
         <v>6</v>
@@ -1301,8 +1352,9 @@
       <c r="C42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="1">
-        <v>0</v>
+      <c r="D42" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>69.222662402269975</v>
       </c>
       <c r="E42" s="1">
         <v>4</v>
@@ -1318,8 +1370,9 @@
       <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="1">
-        <v>0</v>
+      <c r="D43" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>12.563477593260931</v>
       </c>
       <c r="E43" s="1">
         <v>11</v>
@@ -1335,8 +1388,9 @@
       <c r="C44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="1">
-        <v>0</v>
+      <c r="D44" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>48.133882735879972</v>
       </c>
       <c r="E44" s="1">
         <v>7</v>
@@ -1352,8 +1406,9 @@
       <c r="C45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="1">
-        <v>0</v>
+      <c r="D45" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>81.715679278101788</v>
       </c>
       <c r="E45" s="1">
         <v>6</v>
@@ -1369,8 +1424,9 @@
       <c r="C46" s="1">
         <v>6</v>
       </c>
-      <c r="D46" s="1">
-        <v>0</v>
+      <c r="D46" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>41.745024780885487</v>
       </c>
       <c r="E46" s="1">
         <v>10</v>
@@ -1386,8 +1442,9 @@
       <c r="C47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="1">
-        <v>0</v>
+      <c r="D47" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>63.704566085713985</v>
       </c>
       <c r="E47" s="1">
         <v>8</v>
@@ -1403,8 +1460,9 @@
       <c r="C48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="1">
-        <v>0</v>
+      <c r="D48" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>64.662676457265903</v>
       </c>
       <c r="E48" s="1">
         <v>4</v>
@@ -1420,8 +1478,9 @@
       <c r="C49" s="1">
         <v>2</v>
       </c>
-      <c r="D49" s="1">
-        <v>0</v>
+      <c r="D49" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>71.337278901585037</v>
       </c>
       <c r="E49" s="1">
         <v>7</v>
@@ -1437,8 +1496,9 @@
       <c r="C50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="1">
-        <v>0</v>
+      <c r="D50" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>41.364009970577456</v>
       </c>
       <c r="E50" s="1">
         <v>10</v>
@@ -1454,10 +1514,911 @@
       <c r="C51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="1">
-        <v>0</v>
+      <c r="D51" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>87.632635339015678</v>
       </c>
       <c r="E51" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>83.387780465544537</v>
+      </c>
+      <c r="E52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>82.306926720139614</v>
+      </c>
+      <c r="E53" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>77.190434485167586</v>
+      </c>
+      <c r="E54" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>39.963997429347167</v>
+      </c>
+      <c r="E55" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>19.267659325179341</v>
+      </c>
+      <c r="E56" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>17.074301245631329</v>
+      </c>
+      <c r="E57" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.9115414998924551</v>
+      </c>
+      <c r="E58" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>83.610711189539842</v>
+      </c>
+      <c r="E59" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>99.024325767515577</v>
+      </c>
+      <c r="E60" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.507672836822602</v>
+      </c>
+      <c r="E61" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>21.503432329928117</v>
+      </c>
+      <c r="E62" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>65.732393225722049</v>
+      </c>
+      <c r="E63" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>37.887816298440235</v>
+      </c>
+      <c r="E64" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>90.890850742319842</v>
+      </c>
+      <c r="E65" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.1477603989909788</v>
+      </c>
+      <c r="E66" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>28.386879383253916</v>
+      </c>
+      <c r="E67" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>46.773117062437919</v>
+      </c>
+      <c r="E68" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>80.46534141801429</v>
+      </c>
+      <c r="E69" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45.234716600563196</v>
+      </c>
+      <c r="E70" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>18.962608334156016</v>
+      </c>
+      <c r="E71" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>67.74514922625886</v>
+      </c>
+      <c r="E72" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>30.913391893989129</v>
+      </c>
+      <c r="E73" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>29.052091468655739</v>
+      </c>
+      <c r="E74" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.756681210809333</v>
+      </c>
+      <c r="E75" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2</v>
+      </c>
+      <c r="C76" s="1">
+        <v>6</v>
+      </c>
+      <c r="D76" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>98.869556741348703</v>
+      </c>
+      <c r="E76" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>42.078783277244412</v>
+      </c>
+      <c r="E77" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>46.800727188949665</v>
+      </c>
+      <c r="E78" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>3</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2</v>
+      </c>
+      <c r="D79" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>80.801088998726968</v>
+      </c>
+      <c r="E79" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>36.947310988259915</v>
+      </c>
+      <c r="E80" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.9013219810260495</v>
+      </c>
+      <c r="E81" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>40.74634152840467</v>
+      </c>
+      <c r="E82" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>20.925244015426259</v>
+      </c>
+      <c r="E83" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>23.627006704976505</v>
+      </c>
+      <c r="E84" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="3">
+        <f t="shared" ref="D85:D101" ca="1" si="3">RAND()*100</f>
+        <v>78.805466886546398</v>
+      </c>
+      <c r="E85" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>4</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3</v>
+      </c>
+      <c r="D86" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>12.670309232057321</v>
+      </c>
+      <c r="E86" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>34.243455117808367</v>
+      </c>
+      <c r="E87" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>90.009651521747074</v>
+      </c>
+      <c r="E88" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.038619299368889</v>
+      </c>
+      <c r="E89" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>64.502190129465149</v>
+      </c>
+      <c r="E90" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>21.64424974013901</v>
+      </c>
+      <c r="E91" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D92" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>38.028173314736044</v>
+      </c>
+      <c r="E92" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>88.846326439191557</v>
+      </c>
+      <c r="E93" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>62.805103408273524</v>
+      </c>
+      <c r="E94" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>22.592070005161556</v>
+      </c>
+      <c r="E95" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2</v>
+      </c>
+      <c r="C96" s="1">
+        <v>6</v>
+      </c>
+      <c r="D96" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>10.793109616788421</v>
+      </c>
+      <c r="E96" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>29.636078402975119</v>
+      </c>
+      <c r="E97" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45.884986264567765</v>
+      </c>
+      <c r="E98" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>3</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2</v>
+      </c>
+      <c r="D99" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>86.569917049182649</v>
+      </c>
+      <c r="E99" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>30.66044526388173</v>
+      </c>
+      <c r="E100" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D101" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>89.402853958101943</v>
+      </c>
+      <c r="E101" s="1">
         <v>12</v>
       </c>
     </row>
@@ -1472,7 +2433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776CB3E9-940E-4B3A-AEBA-B9FE06DA2AEC}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/Input00.xlsx
+++ b/Input00.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCTemp\GPHH-Matrix-Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4815FC-0FE4-4495-997C-DEE7A785DCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A28A19-3881-472A-BE67-7824CBAD324F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Task" sheetId="1" r:id="rId1"/>
     <sheet name="Station" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="50">
   <si>
     <t>工序能力需求代号列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -587,7 +587,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -605,7 +605,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -616,15 +616,18 @@
         <v>40</v>
       </c>
       <c r="D2" s="3">
-        <f ca="1">RAND()*100</f>
-        <v>69.779182904832396</v>
+        <v>81.800000000000011</v>
       </c>
       <c r="E2" s="1">
         <v>4</v>
       </c>
       <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G65" ca="1" si="0">FLOOR( RAND()*100,0.1)</f>
+        <v>90.600000000000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -635,15 +638,18 @@
         <v>8</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D20" ca="1" si="0">RAND()*100</f>
-        <v>68.696512868602539</v>
+        <v>87.100000000000009</v>
       </c>
       <c r="E3" s="1">
         <v>11</v>
       </c>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -654,15 +660,18 @@
         <v>16</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.9976417433885572</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="E4" s="1">
         <v>7</v>
       </c>
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>57.400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -673,15 +682,18 @@
         <v>18</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>74.714437244901063</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="E5" s="1">
         <v>6</v>
       </c>
       <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -692,15 +704,18 @@
         <v>42</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43.08171339190686</v>
+        <v>93.9</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
       </c>
       <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -711,15 +726,18 @@
         <v>10</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>68.511567402385097</v>
+        <v>95.100000000000009</v>
       </c>
       <c r="E7" s="1">
         <v>8</v>
       </c>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -730,15 +748,18 @@
         <v>17</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>95.571059004928443</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
       </c>
       <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -749,15 +770,18 @@
         <v>31</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>23.936143372935202</v>
+        <v>51.1</v>
       </c>
       <c r="E9" s="1">
         <v>7</v>
       </c>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>86.800000000000011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -768,15 +792,18 @@
         <v>16</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>54.727850876648802</v>
+        <v>25.5</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
       </c>
       <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>57.300000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -787,15 +814,18 @@
         <v>39</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>52.082159950520911</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1">
         <v>12</v>
       </c>
       <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>56.900000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -806,15 +836,18 @@
         <v>15</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>59.214203082700337</v>
+        <v>85.300000000000011</v>
       </c>
       <c r="E12" s="1">
         <v>20</v>
       </c>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>79.800000000000011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -825,15 +858,18 @@
         <v>14</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>97.318066548683149</v>
+        <v>59.900000000000006</v>
       </c>
       <c r="E13" s="1">
         <v>13</v>
       </c>
       <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -844,15 +880,18 @@
         <v>13</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>62.33755222306209</v>
+        <v>5.1000000000000005</v>
       </c>
       <c r="E14" s="1">
         <v>14</v>
       </c>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -863,15 +902,18 @@
         <v>44</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>41.807444274418316</v>
+        <v>64</v>
       </c>
       <c r="E15" s="1">
         <v>13</v>
       </c>
       <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -882,15 +924,18 @@
         <v>37</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>56.16656069628683</v>
+        <v>90.2</v>
       </c>
       <c r="E16" s="1">
         <v>20</v>
       </c>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -901,15 +946,18 @@
         <v>36</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>68.050660232722322</v>
+        <v>66.5</v>
       </c>
       <c r="E17" s="1">
         <v>21</v>
       </c>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -920,15 +968,18 @@
         <v>18</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>97.984387706923798</v>
+        <v>81.5</v>
       </c>
       <c r="E18" s="1">
         <v>25</v>
       </c>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -939,14 +990,17 @@
         <v>26</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" ref="D19" ca="1" si="1">RAND()*100</f>
-        <v>48.891567552249647</v>
+        <v>93.100000000000009</v>
       </c>
       <c r="E19" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>53.300000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -957,14 +1011,17 @@
         <v>27</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>36.93400095173206</v>
+        <v>53.300000000000004</v>
       </c>
       <c r="E20" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>85.300000000000011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -975,14 +1032,17 @@
         <v>28</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" ref="D21:D84" ca="1" si="2">RAND()*100</f>
-        <v>15.833209279030635</v>
+        <v>20.8</v>
       </c>
       <c r="E21" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -993,14 +1053,17 @@
         <v>46</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.7569740573173731</v>
+        <v>71.3</v>
       </c>
       <c r="E22" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>76.600000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1011,14 +1074,17 @@
         <v>8</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>18.68701202356403</v>
+        <v>93.600000000000009</v>
       </c>
       <c r="E23" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>36.800000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1029,14 +1095,17 @@
         <v>16</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>96.159112296692726</v>
+        <v>13.5</v>
       </c>
       <c r="E24" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>44.800000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1047,14 +1116,17 @@
         <v>18</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>31.578947700454108</v>
+        <v>55.800000000000004</v>
       </c>
       <c r="E25" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>53.300000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1065,14 +1137,17 @@
         <v>6</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>64.811467971718201</v>
+        <v>52.2</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1083,14 +1158,17 @@
         <v>10</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>63.85027305137222</v>
+        <v>48.900000000000006</v>
       </c>
       <c r="E27" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1101,14 +1179,17 @@
         <v>17</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.675765069292392</v>
+        <v>33.300000000000004</v>
       </c>
       <c r="E28" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>59.800000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1119,14 +1200,17 @@
         <v>2</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>25.720552185899137</v>
+        <v>70.8</v>
       </c>
       <c r="E29" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1137,14 +1221,17 @@
         <v>16</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>61.073431444008122</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="E30" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1155,14 +1242,17 @@
         <v>47</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.1506382106007851</v>
+        <v>76.2</v>
       </c>
       <c r="E31" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1173,14 +1263,17 @@
         <v>15</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>74.787285146546395</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E32" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G32" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>94.100000000000009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1191,14 +1284,17 @@
         <v>14</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>91.790212860899615</v>
+        <v>51.400000000000006</v>
       </c>
       <c r="E33" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G33" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>88.800000000000011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1209,14 +1305,17 @@
         <v>13</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>67.411109254315207</v>
+        <v>49.900000000000006</v>
       </c>
       <c r="E34" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G34" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>57.300000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1227,14 +1326,17 @@
         <v>12</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>96.011918164886993</v>
+        <v>55.400000000000006</v>
       </c>
       <c r="E35" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G35" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1245,14 +1347,17 @@
         <v>3</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>89.396418420488729</v>
+        <v>41.400000000000006</v>
       </c>
       <c r="E36" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G36" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1263,14 +1368,17 @@
         <v>49</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.5559645770524164</v>
+        <v>70.2</v>
       </c>
       <c r="E37" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G37" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>43.800000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1281,14 +1389,17 @@
         <v>18</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>19.042952959359916</v>
+        <v>60.2</v>
       </c>
       <c r="E38" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G38" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1299,14 +1410,17 @@
         <v>26</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>42.476191467872958</v>
+        <v>18.8</v>
       </c>
       <c r="E39" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G39" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1317,14 +1431,17 @@
         <v>27</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>34.419166028672507</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="E40" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G40" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1335,14 +1452,17 @@
         <v>28</v>
       </c>
       <c r="D41" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>57.732230000082488</v>
+        <v>47.2</v>
       </c>
       <c r="E41" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G41" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>86.600000000000009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1353,14 +1473,17 @@
         <v>46</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>69.222662402269975</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="E42" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G42" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1371,14 +1494,17 @@
         <v>8</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.563477593260931</v>
+        <v>46.900000000000006</v>
       </c>
       <c r="E43" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G43" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>95.800000000000011</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1389,14 +1515,17 @@
         <v>16</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>48.133882735879972</v>
+        <v>21.8</v>
       </c>
       <c r="E44" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G44" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>52.900000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1407,14 +1536,17 @@
         <v>18</v>
       </c>
       <c r="D45" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>81.715679278101788</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="E45" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G45" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1425,14 +1557,17 @@
         <v>6</v>
       </c>
       <c r="D46" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.745024780885487</v>
+        <v>10.9</v>
       </c>
       <c r="E46" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G46" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1443,14 +1578,17 @@
         <v>10</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>63.704566085713985</v>
+        <v>62.400000000000006</v>
       </c>
       <c r="E47" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G47" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>22.700000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1461,14 +1599,17 @@
         <v>17</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>64.662676457265903</v>
+        <v>79.600000000000009</v>
       </c>
       <c r="E48" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G48" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1479,14 +1620,17 @@
         <v>2</v>
       </c>
       <c r="D49" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>71.337278901585037</v>
+        <v>69.3</v>
       </c>
       <c r="E49" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G49" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.400000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1497,14 +1641,17 @@
         <v>16</v>
       </c>
       <c r="D50" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.364009970577456</v>
+        <v>17.7</v>
       </c>
       <c r="E50" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G50" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1515,14 +1662,17 @@
         <v>47</v>
       </c>
       <c r="D51" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>87.632635339015678</v>
+        <v>56.5</v>
       </c>
       <c r="E51" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G51" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1533,14 +1683,17 @@
         <v>40</v>
       </c>
       <c r="D52" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>83.387780465544537</v>
+        <v>89.2</v>
       </c>
       <c r="E52" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G52" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>78.800000000000011</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1551,14 +1704,17 @@
         <v>8</v>
       </c>
       <c r="D53" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>82.306926720139614</v>
+        <v>8.7000000000000011</v>
       </c>
       <c r="E53" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G53" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.700000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1569,14 +1725,17 @@
         <v>16</v>
       </c>
       <c r="D54" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>77.190434485167586</v>
+        <v>35.6</v>
       </c>
       <c r="E54" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G54" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1587,14 +1746,17 @@
         <v>18</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>39.963997429347167</v>
+        <v>92.600000000000009</v>
       </c>
       <c r="E55" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G55" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>91.300000000000011</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1605,14 +1767,17 @@
         <v>42</v>
       </c>
       <c r="D56" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>19.267659325179341</v>
+        <v>99.7</v>
       </c>
       <c r="E56" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G56" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1623,14 +1788,17 @@
         <v>10</v>
       </c>
       <c r="D57" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>17.074301245631329</v>
+        <v>3.6</v>
       </c>
       <c r="E57" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G57" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1641,14 +1809,17 @@
         <v>17</v>
       </c>
       <c r="D58" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.9115414998924551</v>
+        <v>56.2</v>
       </c>
       <c r="E58" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G58" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1659,14 +1830,17 @@
         <v>31</v>
       </c>
       <c r="D59" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>83.610711189539842</v>
+        <v>12.100000000000001</v>
       </c>
       <c r="E59" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G59" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1677,14 +1851,17 @@
         <v>16</v>
       </c>
       <c r="D60" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>99.024325767515577</v>
+        <v>64.100000000000009</v>
       </c>
       <c r="E60" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G60" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -1695,14 +1872,17 @@
         <v>39</v>
       </c>
       <c r="D61" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.507672836822602</v>
+        <v>39.1</v>
       </c>
       <c r="E61" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G61" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -1713,14 +1893,17 @@
         <v>15</v>
       </c>
       <c r="D62" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>21.503432329928117</v>
+        <v>10.600000000000001</v>
       </c>
       <c r="E62" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G62" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>38.300000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -1731,14 +1914,17 @@
         <v>14</v>
       </c>
       <c r="D63" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>65.732393225722049</v>
+        <v>17.5</v>
       </c>
       <c r="E63" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G63" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -1749,14 +1935,17 @@
         <v>13</v>
       </c>
       <c r="D64" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.887816298440235</v>
+        <v>78.600000000000009</v>
       </c>
       <c r="E64" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G64" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>98.800000000000011</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -1767,14 +1956,17 @@
         <v>44</v>
       </c>
       <c r="D65" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>90.890850742319842</v>
+        <v>52.2</v>
       </c>
       <c r="E65" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G65" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -1785,14 +1977,17 @@
         <v>37</v>
       </c>
       <c r="D66" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1477603989909788</v>
+        <v>72.7</v>
       </c>
       <c r="E66" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G66" s="3">
+        <f t="shared" ref="G66:G101" ca="1" si="1">FLOOR( RAND()*100,0.1)</f>
+        <v>1.9000000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -1803,14 +1998,17 @@
         <v>36</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>28.386879383253916</v>
+        <v>43.300000000000004</v>
       </c>
       <c r="E67" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G67" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -1821,14 +2019,17 @@
         <v>18</v>
       </c>
       <c r="D68" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>46.773117062437919</v>
+        <v>79.300000000000011</v>
       </c>
       <c r="E68" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G68" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>55.900000000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -1839,14 +2040,17 @@
         <v>26</v>
       </c>
       <c r="D69" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>80.46534141801429</v>
+        <v>74.5</v>
       </c>
       <c r="E69" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G69" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>53.300000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -1857,14 +2061,17 @@
         <v>27</v>
       </c>
       <c r="D70" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45.234716600563196</v>
+        <v>26.900000000000002</v>
       </c>
       <c r="E70" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G70" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.7000000000000011</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -1875,14 +2082,17 @@
         <v>28</v>
       </c>
       <c r="D71" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>18.962608334156016</v>
+        <v>5.9</v>
       </c>
       <c r="E71" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G71" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -1893,14 +2103,17 @@
         <v>46</v>
       </c>
       <c r="D72" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>67.74514922625886</v>
+        <v>89.800000000000011</v>
       </c>
       <c r="E72" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G72" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -1911,14 +2124,17 @@
         <v>8</v>
       </c>
       <c r="D73" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.913391893989129</v>
+        <v>27.8</v>
       </c>
       <c r="E73" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G73" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>93.600000000000009</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -1929,14 +2145,17 @@
         <v>16</v>
       </c>
       <c r="D74" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>29.052091468655739</v>
+        <v>94.7</v>
       </c>
       <c r="E74" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G74" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -1947,14 +2166,17 @@
         <v>18</v>
       </c>
       <c r="D75" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.756681210809333</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="E75" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G75" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -1965,14 +2187,17 @@
         <v>6</v>
       </c>
       <c r="D76" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>98.869556741348703</v>
+        <v>78.600000000000009</v>
       </c>
       <c r="E76" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G76" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -1983,14 +2208,17 @@
         <v>10</v>
       </c>
       <c r="D77" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>42.078783277244412</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="E77" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G77" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>31.400000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -2001,14 +2229,17 @@
         <v>17</v>
       </c>
       <c r="D78" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>46.800727188949665</v>
+        <v>50.1</v>
       </c>
       <c r="E78" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G78" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -2019,14 +2250,17 @@
         <v>2</v>
       </c>
       <c r="D79" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>80.801088998726968</v>
+        <v>22.6</v>
       </c>
       <c r="E79" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G79" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -2037,14 +2271,17 @@
         <v>16</v>
       </c>
       <c r="D80" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>36.947310988259915</v>
+        <v>12.4</v>
       </c>
       <c r="E80" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G80" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -2055,14 +2292,17 @@
         <v>47</v>
       </c>
       <c r="D81" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.9013219810260495</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="E81" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G81" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>42.800000000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -2073,14 +2313,17 @@
         <v>15</v>
       </c>
       <c r="D82" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>40.74634152840467</v>
+        <v>88.100000000000009</v>
       </c>
       <c r="E82" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G82" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>31.900000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -2091,14 +2334,17 @@
         <v>14</v>
       </c>
       <c r="D83" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>20.925244015426259</v>
+        <v>8.4</v>
       </c>
       <c r="E83" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G83" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>78.100000000000009</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -2109,14 +2355,17 @@
         <v>13</v>
       </c>
       <c r="D84" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>23.627006704976505</v>
+        <v>9.6000000000000014</v>
       </c>
       <c r="E84" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G84" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -2127,14 +2376,17 @@
         <v>12</v>
       </c>
       <c r="D85" s="3">
-        <f t="shared" ref="D85:D101" ca="1" si="3">RAND()*100</f>
-        <v>78.805466886546398</v>
+        <v>50.7</v>
       </c>
       <c r="E85" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G85" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -2145,14 +2397,17 @@
         <v>3</v>
       </c>
       <c r="D86" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>12.670309232057321</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="E86" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G86" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>24.900000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -2163,14 +2418,17 @@
         <v>49</v>
       </c>
       <c r="D87" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>34.243455117808367</v>
+        <v>46.5</v>
       </c>
       <c r="E87" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G87" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -2181,14 +2439,17 @@
         <v>18</v>
       </c>
       <c r="D88" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>90.009651521747074</v>
+        <v>31.900000000000002</v>
       </c>
       <c r="E88" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G88" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>56.800000000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -2199,14 +2460,17 @@
         <v>26</v>
       </c>
       <c r="D89" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.038619299368889</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="E89" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G89" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -2217,14 +2481,17 @@
         <v>27</v>
       </c>
       <c r="D90" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>64.502190129465149</v>
+        <v>62.5</v>
       </c>
       <c r="E90" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G90" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>87.600000000000009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -2235,14 +2502,17 @@
         <v>28</v>
       </c>
       <c r="D91" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>21.64424974013901</v>
+        <v>44.7</v>
       </c>
       <c r="E91" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G91" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>28.400000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -2253,14 +2523,17 @@
         <v>46</v>
       </c>
       <c r="D92" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>38.028173314736044</v>
+        <v>19.200000000000003</v>
       </c>
       <c r="E92" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G92" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>83.800000000000011</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -2271,14 +2544,17 @@
         <v>8</v>
       </c>
       <c r="D93" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>88.846326439191557</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="E93" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G93" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -2289,14 +2565,17 @@
         <v>16</v>
       </c>
       <c r="D94" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>62.805103408273524</v>
+        <v>67.8</v>
       </c>
       <c r="E94" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G94" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -2307,14 +2586,17 @@
         <v>18</v>
       </c>
       <c r="D95" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>22.592070005161556</v>
+        <v>94</v>
       </c>
       <c r="E95" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G95" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -2325,14 +2607,17 @@
         <v>6</v>
       </c>
       <c r="D96" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>10.793109616788421</v>
+        <v>44.800000000000004</v>
       </c>
       <c r="E96" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G96" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>25.700000000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -2343,14 +2628,17 @@
         <v>10</v>
       </c>
       <c r="D97" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.636078402975119</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="E97" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G97" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>40.400000000000006</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -2361,14 +2649,17 @@
         <v>17</v>
       </c>
       <c r="D98" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>45.884986264567765</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="E98" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G98" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>85.600000000000009</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -2379,14 +2670,17 @@
         <v>2</v>
       </c>
       <c r="D99" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>86.569917049182649</v>
+        <v>0.1</v>
       </c>
       <c r="E99" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G99" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -2397,14 +2691,17 @@
         <v>16</v>
       </c>
       <c r="D100" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>30.66044526388173</v>
+        <v>21.3</v>
       </c>
       <c r="E100" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G100" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -2415,10 +2712,1713 @@
         <v>47</v>
       </c>
       <c r="D101" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>89.402853958101943</v>
+        <v>0.5</v>
       </c>
       <c r="E101" s="1">
+        <v>12</v>
+      </c>
+      <c r="G101" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+      <c r="E119" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="E120" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+      <c r="E121" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0</v>
+      </c>
+      <c r="E123" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1">
+        <v>2</v>
+      </c>
+      <c r="C126" s="1">
+        <v>6</v>
+      </c>
+      <c r="D126" s="3">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1">
+        <v>3</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0</v>
+      </c>
+      <c r="E133" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1">
+        <v>4</v>
+      </c>
+      <c r="C136" s="1">
+        <v>3</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0</v>
+      </c>
+      <c r="E136" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" s="3">
+        <v>0</v>
+      </c>
+      <c r="E138" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" s="3">
+        <v>0</v>
+      </c>
+      <c r="E139" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0</v>
+      </c>
+      <c r="E140" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0</v>
+      </c>
+      <c r="E141" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0</v>
+      </c>
+      <c r="E142" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="3">
+        <v>0</v>
+      </c>
+      <c r="E143" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" s="3">
+        <v>0</v>
+      </c>
+      <c r="E144" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" s="3">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1">
+        <v>2</v>
+      </c>
+      <c r="C146" s="1">
+        <v>6</v>
+      </c>
+      <c r="D146" s="3">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="3">
+        <v>0</v>
+      </c>
+      <c r="E147" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" s="3">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1">
+        <v>3</v>
+      </c>
+      <c r="C149" s="1">
+        <v>2</v>
+      </c>
+      <c r="D149" s="3">
+        <v>0</v>
+      </c>
+      <c r="E149" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" s="3">
+        <v>0</v>
+      </c>
+      <c r="E150" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D151" s="3">
+        <v>0</v>
+      </c>
+      <c r="E151" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D152" s="3">
+        <v>0</v>
+      </c>
+      <c r="E152" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="3">
+        <v>0</v>
+      </c>
+      <c r="E153" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" s="3">
+        <v>0</v>
+      </c>
+      <c r="E154" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="3">
+        <v>0</v>
+      </c>
+      <c r="E155" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D156" s="3">
+        <v>0</v>
+      </c>
+      <c r="E156" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="3">
+        <v>0</v>
+      </c>
+      <c r="E157" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="3">
+        <v>0</v>
+      </c>
+      <c r="E158" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D159" s="3">
+        <v>0</v>
+      </c>
+      <c r="E159" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" s="3">
+        <v>0</v>
+      </c>
+      <c r="E160" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D161" s="3">
+        <v>0</v>
+      </c>
+      <c r="E161" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" s="3">
+        <v>0</v>
+      </c>
+      <c r="E162" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" s="3">
+        <v>0</v>
+      </c>
+      <c r="E163" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="3">
+        <v>0</v>
+      </c>
+      <c r="E164" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D165" s="3">
+        <v>0</v>
+      </c>
+      <c r="E165" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D166" s="3">
+        <v>0</v>
+      </c>
+      <c r="E166" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D167" s="3">
+        <v>0</v>
+      </c>
+      <c r="E167" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" s="3">
+        <v>0</v>
+      </c>
+      <c r="E168" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D169" s="3">
+        <v>0</v>
+      </c>
+      <c r="E169" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170" s="3">
+        <v>0</v>
+      </c>
+      <c r="E170" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" s="3">
+        <v>0</v>
+      </c>
+      <c r="E171" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D172" s="3">
+        <v>0</v>
+      </c>
+      <c r="E172" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="3">
+        <v>0</v>
+      </c>
+      <c r="E173" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" s="3">
+        <v>0</v>
+      </c>
+      <c r="E174" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" s="3">
+        <v>0</v>
+      </c>
+      <c r="E175" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1">
+        <v>2</v>
+      </c>
+      <c r="C176" s="1">
+        <v>6</v>
+      </c>
+      <c r="D176" s="3">
+        <v>0</v>
+      </c>
+      <c r="E176" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" s="3">
+        <v>0</v>
+      </c>
+      <c r="E177" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="3">
+        <v>0</v>
+      </c>
+      <c r="E178" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1">
+        <v>3</v>
+      </c>
+      <c r="C179" s="1">
+        <v>2</v>
+      </c>
+      <c r="D179" s="3">
+        <v>0</v>
+      </c>
+      <c r="E179" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" s="3">
+        <v>0</v>
+      </c>
+      <c r="E180" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D181" s="3">
+        <v>0</v>
+      </c>
+      <c r="E181" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" s="3">
+        <v>0</v>
+      </c>
+      <c r="E182" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" s="3">
+        <v>0</v>
+      </c>
+      <c r="E183" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" s="3">
+        <v>0</v>
+      </c>
+      <c r="E184" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="3">
+        <v>0</v>
+      </c>
+      <c r="E185" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1">
+        <v>4</v>
+      </c>
+      <c r="C186" s="1">
+        <v>3</v>
+      </c>
+      <c r="D186" s="3">
+        <v>0</v>
+      </c>
+      <c r="E186" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D187" s="3">
+        <v>0</v>
+      </c>
+      <c r="E187" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D188" s="3">
+        <v>0</v>
+      </c>
+      <c r="E188" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D189" s="3">
+        <v>0</v>
+      </c>
+      <c r="E189" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D190" s="3">
+        <v>0</v>
+      </c>
+      <c r="E190" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" s="3">
+        <v>0</v>
+      </c>
+      <c r="E191" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D192" s="3">
+        <v>0</v>
+      </c>
+      <c r="E192" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" s="3">
+        <v>0</v>
+      </c>
+      <c r="E193" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" s="3">
+        <v>0</v>
+      </c>
+      <c r="E194" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="2">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" s="3">
+        <v>0</v>
+      </c>
+      <c r="E195" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="2">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1">
+        <v>2</v>
+      </c>
+      <c r="C196" s="1">
+        <v>6</v>
+      </c>
+      <c r="D196" s="3">
+        <v>0</v>
+      </c>
+      <c r="E196" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" s="3">
+        <v>0</v>
+      </c>
+      <c r="E197" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" s="3">
+        <v>0</v>
+      </c>
+      <c r="E198" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1">
+        <v>3</v>
+      </c>
+      <c r="C199" s="1">
+        <v>2</v>
+      </c>
+      <c r="D199" s="3">
+        <v>0</v>
+      </c>
+      <c r="E199" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="2">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D200" s="3">
+        <v>0</v>
+      </c>
+      <c r="E200" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D201" s="3">
+        <v>0</v>
+      </c>
+      <c r="E201" s="1">
         <v>12</v>
       </c>
     </row>

--- a/Input00.xlsx
+++ b/Input00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCTemp\GPHH-Matrix-Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A28A19-3881-472A-BE67-7824CBAD324F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8196276-C78E-44CE-AD14-2AECC8D5D520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Task" sheetId="1" r:id="rId1"/>
     <sheet name="Station" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="63">
   <si>
     <t>工序能力需求代号列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,58 @@
   </si>
   <si>
     <t>2,5,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,7,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +626,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -616,15 +668,16 @@
         <v>40</v>
       </c>
       <c r="D2" s="3">
-        <v>81.800000000000011</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4</v>
+        <v>50.6</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2+10</f>
+        <v>60.6</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G65" ca="1" si="0">FLOOR( RAND()*100,0.1)</f>
-        <v>90.600000000000009</v>
+        <f ca="1">FLOOR( RAND()*200,0.1)</f>
+        <v>40.1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -638,15 +691,16 @@
         <v>8</v>
       </c>
       <c r="D3" s="3">
-        <v>87.100000000000009</v>
-      </c>
-      <c r="E3" s="1">
-        <v>11</v>
+        <v>107.60000000000001</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E66" si="0">D3+10</f>
+        <v>117.60000000000001</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.8000000000000007</v>
+        <f t="shared" ref="G3:G66" ca="1" si="1">FLOOR( RAND()*200,0.1)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -660,15 +714,16 @@
         <v>16</v>
       </c>
       <c r="D4" s="3">
-        <v>6.1000000000000005</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7</v>
+        <v>130.1</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>140.1</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>57.400000000000006</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>80.900000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -682,15 +737,16 @@
         <v>18</v>
       </c>
       <c r="D5" s="3">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="E5" s="1">
-        <v>6</v>
+        <v>175.5</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>185.5</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>19.5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>101.60000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -704,15 +760,16 @@
         <v>42</v>
       </c>
       <c r="D6" s="3">
-        <v>93.9</v>
-      </c>
-      <c r="E6" s="1">
-        <v>10</v>
+        <v>152.30000000000001</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>162.30000000000001</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>34.9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>190.10000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -726,15 +783,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="3">
-        <v>95.100000000000009</v>
-      </c>
-      <c r="E7" s="1">
-        <v>8</v>
+        <v>141.70000000000002</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>151.70000000000002</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>199.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -748,15 +806,16 @@
         <v>17</v>
       </c>
       <c r="D8" s="3">
-        <v>61</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4</v>
+        <v>119.9</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>129.9</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>69.7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -770,15 +829,16 @@
         <v>31</v>
       </c>
       <c r="D9" s="3">
-        <v>51.1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>7</v>
+        <v>131.1</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>141.1</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>86.800000000000011</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -792,15 +852,16 @@
         <v>16</v>
       </c>
       <c r="D10" s="3">
-        <v>25.5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>10</v>
+        <v>114.9</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>124.9</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>57.300000000000004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -814,15 +875,16 @@
         <v>39</v>
       </c>
       <c r="D11" s="3">
-        <v>66</v>
-      </c>
-      <c r="E11" s="1">
-        <v>12</v>
+        <v>136.6</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>146.6</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>56.900000000000006</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>151.9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -836,15 +898,16 @@
         <v>15</v>
       </c>
       <c r="D12" s="3">
-        <v>85.300000000000011</v>
-      </c>
-      <c r="E12" s="1">
-        <v>20</v>
+        <v>73.400000000000006</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>83.4</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>79.800000000000011</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -858,15 +921,16 @@
         <v>14</v>
       </c>
       <c r="D13" s="3">
-        <v>59.900000000000006</v>
-      </c>
-      <c r="E13" s="1">
-        <v>13</v>
+        <v>89.7</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>99.7</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>146.4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -880,15 +944,16 @@
         <v>13</v>
       </c>
       <c r="D14" s="3">
-        <v>5.1000000000000005</v>
-      </c>
-      <c r="E14" s="1">
-        <v>14</v>
+        <v>174.9</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>184.9</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>94.4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>75.2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -902,15 +967,16 @@
         <v>44</v>
       </c>
       <c r="D15" s="3">
-        <v>64</v>
-      </c>
-      <c r="E15" s="1">
-        <v>13</v>
+        <v>76.600000000000009</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>86.600000000000009</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>25.6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>87.9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -924,15 +990,16 @@
         <v>37</v>
       </c>
       <c r="D16" s="3">
-        <v>90.2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>20</v>
+        <v>193.4</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>203.4</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>36.200000000000003</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>82.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -946,15 +1013,16 @@
         <v>36</v>
       </c>
       <c r="D17" s="3">
-        <v>66.5</v>
-      </c>
-      <c r="E17" s="1">
-        <v>21</v>
+        <v>49.800000000000004</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>59.800000000000004</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.600000000000001</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>94.800000000000011</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -968,15 +1036,16 @@
         <v>18</v>
       </c>
       <c r="D18" s="3">
-        <v>81.5</v>
-      </c>
-      <c r="E18" s="1">
-        <v>25</v>
+        <v>96</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>106</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>38.5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -990,14 +1059,15 @@
         <v>26</v>
       </c>
       <c r="D19" s="3">
-        <v>93.100000000000009</v>
-      </c>
-      <c r="E19" s="1">
-        <v>19</v>
+        <v>142.6</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>152.6</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>53.300000000000004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>122.80000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1011,14 +1081,15 @@
         <v>27</v>
       </c>
       <c r="D20" s="3">
-        <v>53.300000000000004</v>
-      </c>
-      <c r="E20" s="1">
-        <v>30</v>
+        <v>100.30000000000001</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>110.30000000000001</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>85.300000000000011</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>53.800000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1032,14 +1103,15 @@
         <v>28</v>
       </c>
       <c r="D21" s="3">
-        <v>20.8</v>
-      </c>
-      <c r="E21" s="1">
-        <v>6</v>
+        <v>106.30000000000001</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>116.30000000000001</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>70.100000000000009</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1053,14 +1125,15 @@
         <v>46</v>
       </c>
       <c r="D22" s="3">
-        <v>71.3</v>
-      </c>
-      <c r="E22" s="1">
-        <v>4</v>
+        <v>79.5</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>89.5</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>76.600000000000009</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>88.7</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1074,14 +1147,15 @@
         <v>8</v>
       </c>
       <c r="D23" s="3">
-        <v>93.600000000000009</v>
-      </c>
-      <c r="E23" s="1">
-        <v>11</v>
+        <v>128.9</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>138.9</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>36.800000000000004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>157.10000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1095,14 +1169,15 @@
         <v>16</v>
       </c>
       <c r="D24" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>7</v>
+        <v>187.70000000000002</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>197.70000000000002</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>44.800000000000004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>108.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1116,35 +1191,37 @@
         <v>18</v>
       </c>
       <c r="D25" s="3">
-        <v>55.800000000000004</v>
-      </c>
-      <c r="E25" s="1">
-        <v>10</v>
+        <v>121.80000000000001</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>131.80000000000001</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>53.300000000000004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>102.9</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1">
-        <v>6</v>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="3">
-        <v>52.2</v>
-      </c>
-      <c r="E26" s="1">
-        <v>10</v>
+        <v>15.9</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>25.9</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>22.1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>110.60000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1158,14 +1235,15 @@
         <v>10</v>
       </c>
       <c r="D27" s="3">
-        <v>48.900000000000006</v>
-      </c>
-      <c r="E27" s="1">
-        <v>8</v>
+        <v>165.5</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
+        <v>175.5</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>90.9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1179,14 +1257,15 @@
         <v>17</v>
       </c>
       <c r="D28" s="3">
-        <v>33.300000000000004</v>
-      </c>
-      <c r="E28" s="1">
-        <v>4</v>
+        <v>11.100000000000001</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
+        <v>21.1</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>59.800000000000004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1200,14 +1279,15 @@
         <v>2</v>
       </c>
       <c r="D29" s="3">
-        <v>70.8</v>
-      </c>
-      <c r="E29" s="1">
-        <v>7</v>
+        <v>150</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
+        <v>160</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>95.7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>118.7</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1221,14 +1301,15 @@
         <v>16</v>
       </c>
       <c r="D30" s="3">
-        <v>4.6000000000000005</v>
-      </c>
-      <c r="E30" s="1">
-        <v>10</v>
+        <v>52.6</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="0"/>
+        <v>62.6</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>90.7</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1242,14 +1323,15 @@
         <v>47</v>
       </c>
       <c r="D31" s="3">
-        <v>76.2</v>
-      </c>
-      <c r="E31" s="1">
-        <v>12</v>
+        <v>62.2</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="0"/>
+        <v>72.2</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>88.9</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1263,14 +1345,15 @@
         <v>15</v>
       </c>
       <c r="D32" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E32" s="1">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>94.100000000000009</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>38.1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1284,14 +1367,15 @@
         <v>14</v>
       </c>
       <c r="D33" s="3">
-        <v>51.400000000000006</v>
-      </c>
-      <c r="E33" s="1">
-        <v>13</v>
+        <v>137.6</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="0"/>
+        <v>147.6</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>88.800000000000011</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>33.200000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1305,14 +1389,15 @@
         <v>13</v>
       </c>
       <c r="D34" s="3">
-        <v>49.900000000000006</v>
-      </c>
-      <c r="E34" s="1">
-        <v>14</v>
+        <v>106.5</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="0"/>
+        <v>116.5</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>57.300000000000004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>100.10000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1326,35 +1411,37 @@
         <v>12</v>
       </c>
       <c r="D35" s="3">
-        <v>55.400000000000006</v>
-      </c>
-      <c r="E35" s="1">
-        <v>13</v>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="0"/>
+        <v>14.8</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>52.7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>62.7</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
-        <v>4</v>
-      </c>
-      <c r="C36" s="1">
-        <v>3</v>
+      <c r="B36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D36" s="3">
-        <v>41.400000000000006</v>
-      </c>
-      <c r="E36" s="1">
-        <v>20</v>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="0"/>
+        <v>15.600000000000001</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>27.900000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1368,14 +1455,15 @@
         <v>49</v>
       </c>
       <c r="D37" s="3">
-        <v>70.2</v>
-      </c>
-      <c r="E37" s="1">
-        <v>21</v>
+        <v>166.20000000000002</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="0"/>
+        <v>176.20000000000002</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43.800000000000004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>186.60000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1389,14 +1477,15 @@
         <v>18</v>
       </c>
       <c r="D38" s="3">
-        <v>60.2</v>
-      </c>
-      <c r="E38" s="1">
-        <v>25</v>
+        <v>169.8</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="0"/>
+        <v>179.8</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>83.7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>191.60000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1410,14 +1499,15 @@
         <v>26</v>
       </c>
       <c r="D39" s="3">
-        <v>18.8</v>
-      </c>
-      <c r="E39" s="1">
-        <v>19</v>
+        <v>105.2</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="0"/>
+        <v>115.2</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>15.700000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1431,14 +1521,15 @@
         <v>27</v>
       </c>
       <c r="D40" s="3">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="E40" s="1">
-        <v>30</v>
+        <v>94.4</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="0"/>
+        <v>104.4</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>67.8</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1452,14 +1543,15 @@
         <v>28</v>
       </c>
       <c r="D41" s="3">
-        <v>47.2</v>
-      </c>
-      <c r="E41" s="1">
-        <v>6</v>
+        <v>159</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="0"/>
+        <v>169</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>86.600000000000009</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>192.70000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1473,14 +1565,15 @@
         <v>46</v>
       </c>
       <c r="D42" s="3">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="E42" s="1">
-        <v>4</v>
+        <v>137.4</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="0"/>
+        <v>147.4</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>159.60000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1494,14 +1587,15 @@
         <v>8</v>
       </c>
       <c r="D43" s="3">
-        <v>46.900000000000006</v>
-      </c>
-      <c r="E43" s="1">
-        <v>11</v>
+        <v>167.70000000000002</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="0"/>
+        <v>177.70000000000002</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>95.800000000000011</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>170.4</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1515,14 +1609,15 @@
         <v>16</v>
       </c>
       <c r="D44" s="3">
-        <v>21.8</v>
-      </c>
-      <c r="E44" s="1">
-        <v>7</v>
+        <v>136.1</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="0"/>
+        <v>146.1</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>52.900000000000006</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>95.300000000000011</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1536,14 +1631,15 @@
         <v>18</v>
       </c>
       <c r="D45" s="3">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="E45" s="1">
-        <v>6</v>
+        <v>36.9</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="0"/>
+        <v>46.9</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>38.6</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1557,14 +1653,15 @@
         <v>6</v>
       </c>
       <c r="D46" s="3">
-        <v>10.9</v>
-      </c>
-      <c r="E46" s="1">
-        <v>10</v>
+        <v>6.1000000000000005</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="0"/>
+        <v>16.100000000000001</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1578,14 +1675,15 @@
         <v>10</v>
       </c>
       <c r="D47" s="3">
-        <v>62.400000000000006</v>
-      </c>
-      <c r="E47" s="1">
-        <v>8</v>
+        <v>49</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>22.700000000000003</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1599,35 +1697,37 @@
         <v>17</v>
       </c>
       <c r="D48" s="3">
-        <v>79.600000000000009</v>
-      </c>
-      <c r="E48" s="1">
-        <v>4</v>
+        <v>191.8</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="0"/>
+        <v>201.8</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>60.5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
-        <v>3</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2</v>
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D49" s="3">
-        <v>69.3</v>
-      </c>
-      <c r="E49" s="1">
-        <v>7</v>
+        <v>33.4</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="0"/>
+        <v>43.4</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>21.400000000000002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>165.60000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1641,14 +1741,15 @@
         <v>16</v>
       </c>
       <c r="D50" s="3">
-        <v>17.7</v>
-      </c>
-      <c r="E50" s="1">
-        <v>10</v>
+        <v>71.900000000000006</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="0"/>
+        <v>81.900000000000006</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>46.5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>150.30000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1662,14 +1763,15 @@
         <v>47</v>
       </c>
       <c r="D51" s="3">
-        <v>56.5</v>
-      </c>
-      <c r="E51" s="1">
-        <v>12</v>
+        <v>154.30000000000001</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="0"/>
+        <v>164.3</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43.7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>101.9</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -1683,14 +1785,15 @@
         <v>40</v>
       </c>
       <c r="D52" s="3">
-        <v>89.2</v>
-      </c>
-      <c r="E52" s="1">
-        <v>4</v>
+        <v>170.9</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="0"/>
+        <v>180.9</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>78.800000000000011</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>142.20000000000002</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -1704,14 +1807,15 @@
         <v>8</v>
       </c>
       <c r="D53" s="3">
-        <v>8.7000000000000011</v>
-      </c>
-      <c r="E53" s="1">
-        <v>11</v>
+        <v>149.1</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="0"/>
+        <v>159.1</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.700000000000001</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>194.4</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1725,14 +1829,15 @@
         <v>16</v>
       </c>
       <c r="D54" s="3">
-        <v>35.6</v>
-      </c>
-      <c r="E54" s="1">
-        <v>7</v>
+        <v>91.2</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.7</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -1746,14 +1851,15 @@
         <v>18</v>
       </c>
       <c r="D55" s="3">
-        <v>92.600000000000009</v>
-      </c>
-      <c r="E55" s="1">
-        <v>6</v>
+        <v>101.2</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="0"/>
+        <v>111.2</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>91.300000000000011</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -1767,14 +1873,15 @@
         <v>42</v>
       </c>
       <c r="D56" s="3">
-        <v>99.7</v>
-      </c>
-      <c r="E56" s="1">
-        <v>10</v>
+        <v>190.8</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="0"/>
+        <v>200.8</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>29.5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.7</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -1788,14 +1895,15 @@
         <v>10</v>
       </c>
       <c r="D57" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="E57" s="1">
-        <v>8</v>
+        <v>73.2</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="0"/>
+        <v>83.2</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>25.6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>126.9</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -1809,14 +1917,15 @@
         <v>17</v>
       </c>
       <c r="D58" s="3">
-        <v>56.2</v>
-      </c>
-      <c r="E58" s="1">
-        <v>4</v>
+        <v>83.9</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="0"/>
+        <v>93.9</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>92.5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>150.4</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -1830,14 +1939,15 @@
         <v>31</v>
       </c>
       <c r="D59" s="3">
-        <v>12.100000000000001</v>
-      </c>
-      <c r="E59" s="1">
-        <v>7</v>
+        <v>34.300000000000004</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="0"/>
+        <v>44.300000000000004</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>92.4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>187.70000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -1851,14 +1961,15 @@
         <v>16</v>
       </c>
       <c r="D60" s="3">
-        <v>64.100000000000009</v>
-      </c>
-      <c r="E60" s="1">
-        <v>10</v>
+        <v>120.2</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="0"/>
+        <v>130.19999999999999</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>26.8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>133.30000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -1872,14 +1983,15 @@
         <v>39</v>
       </c>
       <c r="D61" s="3">
-        <v>39.1</v>
-      </c>
-      <c r="E61" s="1">
-        <v>12</v>
+        <v>198.4</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="0"/>
+        <v>208.4</v>
       </c>
       <c r="G61" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>28.3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>21.6</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -1893,14 +2005,15 @@
         <v>15</v>
       </c>
       <c r="D62" s="3">
-        <v>10.600000000000001</v>
-      </c>
-      <c r="E62" s="1">
-        <v>20</v>
+        <v>102.60000000000001</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="0"/>
+        <v>112.60000000000001</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>38.300000000000004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>110.7</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -1914,14 +2027,15 @@
         <v>14</v>
       </c>
       <c r="D63" s="3">
-        <v>17.5</v>
-      </c>
-      <c r="E63" s="1">
-        <v>13</v>
+        <v>187.10000000000002</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="0"/>
+        <v>197.10000000000002</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>72.600000000000009</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>155.60000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -1935,14 +2049,15 @@
         <v>13</v>
       </c>
       <c r="D64" s="3">
-        <v>78.600000000000009</v>
-      </c>
-      <c r="E64" s="1">
-        <v>14</v>
+        <v>93.7</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="0"/>
+        <v>103.7</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>98.800000000000011</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>72.7</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -1956,14 +2071,15 @@
         <v>44</v>
       </c>
       <c r="D65" s="3">
-        <v>52.2</v>
-      </c>
-      <c r="E65" s="1">
-        <v>13</v>
+        <v>157</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="0"/>
+        <v>167</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>54.7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44.400000000000006</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -1977,14 +2093,15 @@
         <v>37</v>
       </c>
       <c r="D66" s="3">
-        <v>72.7</v>
-      </c>
-      <c r="E66" s="1">
-        <v>20</v>
+        <v>190.70000000000002</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" si="0"/>
+        <v>200.70000000000002</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" ref="G66:G101" ca="1" si="1">FLOOR( RAND()*100,0.1)</f>
-        <v>1.9000000000000001</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>146.4</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -1998,14 +2115,15 @@
         <v>36</v>
       </c>
       <c r="D67" s="3">
-        <v>43.300000000000004</v>
-      </c>
-      <c r="E67" s="1">
-        <v>21</v>
+        <v>63</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" ref="E67:E130" si="2">D67+10</f>
+        <v>73</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>53.6</v>
+        <f t="shared" ref="G67:G130" ca="1" si="3">FLOOR( RAND()*200,0.1)</f>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2019,14 +2137,15 @@
         <v>18</v>
       </c>
       <c r="D68" s="3">
-        <v>79.300000000000011</v>
-      </c>
-      <c r="E68" s="1">
-        <v>25</v>
+        <v>11.4</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" si="2"/>
+        <v>21.4</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>55.900000000000006</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>46.400000000000006</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2040,14 +2159,15 @@
         <v>26</v>
       </c>
       <c r="D69" s="3">
-        <v>74.5</v>
-      </c>
-      <c r="E69" s="1">
-        <v>19</v>
+        <v>181.5</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="2"/>
+        <v>191.5</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>53.300000000000004</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>139.6</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2061,14 +2181,15 @@
         <v>27</v>
       </c>
       <c r="D70" s="3">
-        <v>26.900000000000002</v>
-      </c>
-      <c r="E70" s="1">
-        <v>30</v>
+        <v>43.1</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" si="2"/>
+        <v>53.1</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.7000000000000011</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>160.4</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2082,14 +2203,15 @@
         <v>28</v>
       </c>
       <c r="D71" s="3">
-        <v>5.9</v>
-      </c>
-      <c r="E71" s="1">
-        <v>6</v>
+        <v>46.900000000000006</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" si="2"/>
+        <v>56.900000000000006</v>
       </c>
       <c r="G71" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>66.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2103,14 +2225,15 @@
         <v>46</v>
       </c>
       <c r="D72" s="3">
-        <v>89.800000000000011</v>
-      </c>
-      <c r="E72" s="1">
-        <v>4</v>
+        <v>16.5</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" si="2"/>
+        <v>26.5</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>64.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>108.5</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2124,14 +2247,15 @@
         <v>8</v>
       </c>
       <c r="D73" s="3">
-        <v>27.8</v>
-      </c>
-      <c r="E73" s="1">
-        <v>11</v>
+        <v>155</v>
+      </c>
+      <c r="E73" s="3">
+        <f t="shared" si="2"/>
+        <v>165</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>93.600000000000009</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2145,14 +2269,15 @@
         <v>16</v>
       </c>
       <c r="D74" s="3">
-        <v>94.7</v>
-      </c>
-      <c r="E74" s="1">
-        <v>7</v>
+        <v>41.2</v>
+      </c>
+      <c r="E74" s="3">
+        <f t="shared" si="2"/>
+        <v>51.2</v>
       </c>
       <c r="G74" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>95.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -2166,14 +2291,15 @@
         <v>18</v>
       </c>
       <c r="D75" s="3">
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="E75" s="1">
-        <v>10</v>
+        <v>111.2</v>
+      </c>
+      <c r="E75" s="3">
+        <f t="shared" si="2"/>
+        <v>121.2</v>
       </c>
       <c r="G75" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>78.400000000000006</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>166.5</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2187,14 +2313,15 @@
         <v>6</v>
       </c>
       <c r="D76" s="3">
-        <v>78.600000000000009</v>
-      </c>
-      <c r="E76" s="1">
-        <v>10</v>
+        <v>135.30000000000001</v>
+      </c>
+      <c r="E76" s="3">
+        <f t="shared" si="2"/>
+        <v>145.30000000000001</v>
       </c>
       <c r="G76" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>60.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>19.400000000000002</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -2208,14 +2335,15 @@
         <v>10</v>
       </c>
       <c r="D77" s="3">
-        <v>10.200000000000001</v>
-      </c>
-      <c r="E77" s="1">
-        <v>8</v>
+        <v>183.70000000000002</v>
+      </c>
+      <c r="E77" s="3">
+        <f t="shared" si="2"/>
+        <v>193.70000000000002</v>
       </c>
       <c r="G77" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>31.400000000000002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -2229,35 +2357,37 @@
         <v>17</v>
       </c>
       <c r="D78" s="3">
-        <v>50.1</v>
-      </c>
-      <c r="E78" s="1">
-        <v>4</v>
+        <v>124</v>
+      </c>
+      <c r="E78" s="3">
+        <f t="shared" si="2"/>
+        <v>134</v>
       </c>
       <c r="G78" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>52.2</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="1">
-        <v>3</v>
-      </c>
-      <c r="C79" s="1">
-        <v>2</v>
+      <c r="B79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D79" s="3">
-        <v>22.6</v>
-      </c>
-      <c r="E79" s="1">
-        <v>7</v>
+        <v>169.20000000000002</v>
+      </c>
+      <c r="E79" s="3">
+        <f t="shared" si="2"/>
+        <v>179.20000000000002</v>
       </c>
       <c r="G79" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>72.2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>84.4</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -2271,14 +2401,15 @@
         <v>16</v>
       </c>
       <c r="D80" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="E80" s="1">
-        <v>10</v>
+        <v>82.9</v>
+      </c>
+      <c r="E80" s="3">
+        <f t="shared" si="2"/>
+        <v>92.9</v>
       </c>
       <c r="G80" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>52.2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>187.60000000000002</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -2292,14 +2423,15 @@
         <v>47</v>
       </c>
       <c r="D81" s="3">
-        <v>3.4000000000000004</v>
-      </c>
-      <c r="E81" s="1">
-        <v>12</v>
+        <v>174.60000000000002</v>
+      </c>
+      <c r="E81" s="3">
+        <f t="shared" si="2"/>
+        <v>184.60000000000002</v>
       </c>
       <c r="G81" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>42.800000000000004</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>75.7</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -2313,14 +2445,15 @@
         <v>15</v>
       </c>
       <c r="D82" s="3">
-        <v>88.100000000000009</v>
-      </c>
-      <c r="E82" s="1">
-        <v>20</v>
+        <v>72.2</v>
+      </c>
+      <c r="E82" s="3">
+        <f t="shared" si="2"/>
+        <v>82.2</v>
       </c>
       <c r="G82" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>31.900000000000002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>158.70000000000002</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -2334,14 +2467,15 @@
         <v>14</v>
       </c>
       <c r="D83" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="E83" s="1">
-        <v>13</v>
+        <v>62.2</v>
+      </c>
+      <c r="E83" s="3">
+        <f t="shared" si="2"/>
+        <v>72.2</v>
       </c>
       <c r="G83" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>78.100000000000009</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>41.1</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -2355,14 +2489,15 @@
         <v>13</v>
       </c>
       <c r="D84" s="3">
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="E84" s="1">
-        <v>14</v>
+        <v>68.100000000000009</v>
+      </c>
+      <c r="E84" s="3">
+        <f t="shared" si="2"/>
+        <v>78.100000000000009</v>
       </c>
       <c r="G84" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>62.1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>83.7</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2376,35 +2511,37 @@
         <v>12</v>
       </c>
       <c r="D85" s="3">
-        <v>50.7</v>
-      </c>
-      <c r="E85" s="1">
-        <v>13</v>
+        <v>121.10000000000001</v>
+      </c>
+      <c r="E85" s="3">
+        <f t="shared" si="2"/>
+        <v>131.10000000000002</v>
       </c>
       <c r="G85" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>26.8</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>121.7</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="1">
-        <v>4</v>
-      </c>
-      <c r="C86" s="1">
-        <v>3</v>
+      <c r="B86" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D86" s="3">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="E86" s="1">
-        <v>20</v>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E86" s="3">
+        <f t="shared" si="2"/>
+        <v>47.2</v>
       </c>
       <c r="G86" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>24.900000000000002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>161.20000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -2418,14 +2555,15 @@
         <v>49</v>
       </c>
       <c r="D87" s="3">
-        <v>46.5</v>
-      </c>
-      <c r="E87" s="1">
-        <v>21</v>
+        <v>120.2</v>
+      </c>
+      <c r="E87" s="3">
+        <f t="shared" si="2"/>
+        <v>130.19999999999999</v>
       </c>
       <c r="G87" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45.6</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>109.10000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -2439,14 +2577,15 @@
         <v>18</v>
       </c>
       <c r="D88" s="3">
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E88" s="1">
-        <v>25</v>
+        <v>67.7</v>
+      </c>
+      <c r="E88" s="3">
+        <f t="shared" si="2"/>
+        <v>77.7</v>
       </c>
       <c r="G88" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>56.800000000000004</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>192.3</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -2460,14 +2599,15 @@
         <v>26</v>
       </c>
       <c r="D89" s="3">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="E89" s="1">
-        <v>19</v>
+        <v>33.6</v>
+      </c>
+      <c r="E89" s="3">
+        <f t="shared" si="2"/>
+        <v>43.6</v>
       </c>
       <c r="G89" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>19.3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>80.5</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -2481,14 +2621,15 @@
         <v>27</v>
       </c>
       <c r="D90" s="3">
-        <v>62.5</v>
-      </c>
-      <c r="E90" s="1">
-        <v>30</v>
+        <v>23.8</v>
+      </c>
+      <c r="E90" s="3">
+        <f t="shared" si="2"/>
+        <v>33.799999999999997</v>
       </c>
       <c r="G90" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>87.600000000000009</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11.700000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -2502,14 +2643,15 @@
         <v>28</v>
       </c>
       <c r="D91" s="3">
-        <v>44.7</v>
-      </c>
-      <c r="E91" s="1">
-        <v>6</v>
+        <v>194.3</v>
+      </c>
+      <c r="E91" s="3">
+        <f t="shared" si="2"/>
+        <v>204.3</v>
       </c>
       <c r="G91" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>28.400000000000002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>87.100000000000009</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -2523,14 +2665,15 @@
         <v>46</v>
       </c>
       <c r="D92" s="3">
-        <v>19.200000000000003</v>
-      </c>
-      <c r="E92" s="1">
-        <v>4</v>
+        <v>154.80000000000001</v>
+      </c>
+      <c r="E92" s="3">
+        <f t="shared" si="2"/>
+        <v>164.8</v>
       </c>
       <c r="G92" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>83.800000000000011</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>198.70000000000002</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -2544,14 +2687,15 @@
         <v>8</v>
       </c>
       <c r="D93" s="3">
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="E93" s="1">
-        <v>11</v>
+        <v>98.800000000000011</v>
+      </c>
+      <c r="E93" s="3">
+        <f t="shared" si="2"/>
+        <v>108.80000000000001</v>
       </c>
       <c r="G93" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>65.2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>92.600000000000009</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -2565,14 +2709,15 @@
         <v>16</v>
       </c>
       <c r="D94" s="3">
-        <v>67.8</v>
-      </c>
-      <c r="E94" s="1">
-        <v>7</v>
+        <v>70.900000000000006</v>
+      </c>
+      <c r="E94" s="3">
+        <f t="shared" si="2"/>
+        <v>80.900000000000006</v>
       </c>
       <c r="G94" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>149.70000000000002</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -2586,14 +2731,15 @@
         <v>18</v>
       </c>
       <c r="D95" s="3">
-        <v>94</v>
-      </c>
-      <c r="E95" s="1">
-        <v>6</v>
+        <v>91.2</v>
+      </c>
+      <c r="E95" s="3">
+        <f t="shared" si="2"/>
+        <v>101.2</v>
       </c>
       <c r="G95" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>79.300000000000011</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -2607,14 +2753,15 @@
         <v>6</v>
       </c>
       <c r="D96" s="3">
-        <v>44.800000000000004</v>
-      </c>
-      <c r="E96" s="1">
-        <v>10</v>
+        <v>126.7</v>
+      </c>
+      <c r="E96" s="3">
+        <f t="shared" si="2"/>
+        <v>136.69999999999999</v>
       </c>
       <c r="G96" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>25.700000000000003</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>86.300000000000011</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -2628,14 +2775,15 @@
         <v>10</v>
       </c>
       <c r="D97" s="3">
-        <v>17.400000000000002</v>
-      </c>
-      <c r="E97" s="1">
-        <v>8</v>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="E97" s="3">
+        <f t="shared" si="2"/>
+        <v>24.1</v>
       </c>
       <c r="G97" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>40.400000000000006</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -2649,35 +2797,37 @@
         <v>17</v>
       </c>
       <c r="D98" s="3">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="E98" s="1">
-        <v>4</v>
+        <v>32.6</v>
+      </c>
+      <c r="E98" s="3">
+        <f t="shared" si="2"/>
+        <v>42.6</v>
       </c>
       <c r="G98" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>85.600000000000009</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>103.5</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99" s="1">
-        <v>3</v>
-      </c>
-      <c r="C99" s="1">
-        <v>2</v>
+      <c r="B99" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D99" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E99" s="1">
-        <v>7</v>
+        <v>116.5</v>
+      </c>
+      <c r="E99" s="3">
+        <f t="shared" si="2"/>
+        <v>126.5</v>
       </c>
       <c r="G99" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>95.4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>128.4</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -2691,14 +2841,15 @@
         <v>16</v>
       </c>
       <c r="D100" s="3">
-        <v>21.3</v>
-      </c>
-      <c r="E100" s="1">
-        <v>10</v>
+        <v>25.5</v>
+      </c>
+      <c r="E100" s="3">
+        <f t="shared" si="2"/>
+        <v>35.5</v>
       </c>
       <c r="G100" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>108.80000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -2712,14 +2863,15 @@
         <v>47</v>
       </c>
       <c r="D101" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E101" s="1">
-        <v>12</v>
+        <v>179.10000000000002</v>
+      </c>
+      <c r="E101" s="3">
+        <f t="shared" si="2"/>
+        <v>189.10000000000002</v>
       </c>
       <c r="G101" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>75.900000000000006</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>123.4</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -2733,10 +2885,15 @@
         <v>40</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="1">
-        <v>4</v>
+        <v>59.300000000000004</v>
+      </c>
+      <c r="E102" s="3">
+        <f t="shared" si="2"/>
+        <v>69.300000000000011</v>
+      </c>
+      <c r="G102" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -2750,10 +2907,15 @@
         <v>8</v>
       </c>
       <c r="D103" s="3">
-        <v>0</v>
-      </c>
-      <c r="E103" s="1">
-        <v>11</v>
+        <v>174</v>
+      </c>
+      <c r="E103" s="3">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="G103" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>132.70000000000002</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -2767,10 +2929,15 @@
         <v>16</v>
       </c>
       <c r="D104" s="3">
-        <v>0</v>
-      </c>
-      <c r="E104" s="1">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="E104" s="3">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="G104" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -2784,10 +2951,15 @@
         <v>18</v>
       </c>
       <c r="D105" s="3">
-        <v>0</v>
-      </c>
-      <c r="E105" s="1">
-        <v>6</v>
+        <v>168.9</v>
+      </c>
+      <c r="E105" s="3">
+        <f t="shared" si="2"/>
+        <v>178.9</v>
+      </c>
+      <c r="G105" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -2801,10 +2973,15 @@
         <v>42</v>
       </c>
       <c r="D106" s="3">
-        <v>0</v>
-      </c>
-      <c r="E106" s="1">
-        <v>10</v>
+        <v>49.7</v>
+      </c>
+      <c r="E106" s="3">
+        <f t="shared" si="2"/>
+        <v>59.7</v>
+      </c>
+      <c r="G106" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>77.100000000000009</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -2818,10 +2995,15 @@
         <v>10</v>
       </c>
       <c r="D107" s="3">
-        <v>0</v>
-      </c>
-      <c r="E107" s="1">
-        <v>8</v>
+        <v>132.80000000000001</v>
+      </c>
+      <c r="E107" s="3">
+        <f t="shared" si="2"/>
+        <v>142.80000000000001</v>
+      </c>
+      <c r="G107" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>88.7</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -2835,10 +3017,15 @@
         <v>17</v>
       </c>
       <c r="D108" s="3">
-        <v>0</v>
-      </c>
-      <c r="E108" s="1">
-        <v>4</v>
+        <v>148.6</v>
+      </c>
+      <c r="E108" s="3">
+        <f t="shared" si="2"/>
+        <v>158.6</v>
+      </c>
+      <c r="G108" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>133.1</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -2852,10 +3039,15 @@
         <v>31</v>
       </c>
       <c r="D109" s="3">
-        <v>0</v>
-      </c>
-      <c r="E109" s="1">
-        <v>7</v>
+        <v>170.8</v>
+      </c>
+      <c r="E109" s="3">
+        <f t="shared" si="2"/>
+        <v>180.8</v>
+      </c>
+      <c r="G109" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>178.4</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -2869,10 +3061,15 @@
         <v>16</v>
       </c>
       <c r="D110" s="3">
-        <v>0</v>
-      </c>
-      <c r="E110" s="1">
-        <v>10</v>
+        <v>129.80000000000001</v>
+      </c>
+      <c r="E110" s="3">
+        <f t="shared" si="2"/>
+        <v>139.80000000000001</v>
+      </c>
+      <c r="G110" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -2886,10 +3083,15 @@
         <v>39</v>
       </c>
       <c r="D111" s="3">
-        <v>0</v>
-      </c>
-      <c r="E111" s="1">
-        <v>12</v>
+        <v>44.2</v>
+      </c>
+      <c r="E111" s="3">
+        <f t="shared" si="2"/>
+        <v>54.2</v>
+      </c>
+      <c r="G111" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>72.100000000000009</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -2903,47 +3105,62 @@
         <v>15</v>
       </c>
       <c r="D112" s="3">
-        <v>0</v>
-      </c>
-      <c r="E112" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19.900000000000002</v>
+      </c>
+      <c r="E112" s="3">
+        <f t="shared" si="2"/>
+        <v>29.900000000000002</v>
+      </c>
+      <c r="G112" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>133.30000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D113" s="3">
-        <v>0</v>
-      </c>
-      <c r="E113" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+        <v>123.5</v>
+      </c>
+      <c r="E113" s="3">
+        <f t="shared" si="2"/>
+        <v>133.5</v>
+      </c>
+      <c r="G113" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D114" s="3">
-        <v>0</v>
-      </c>
-      <c r="E114" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="E114" s="3">
+        <f t="shared" si="2"/>
+        <v>162.30000000000001</v>
+      </c>
+      <c r="G114" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>89.600000000000009</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -2954,13 +3171,18 @@
         <v>44</v>
       </c>
       <c r="D115" s="3">
-        <v>0</v>
-      </c>
-      <c r="E115" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122.5</v>
+      </c>
+      <c r="E115" s="3">
+        <f t="shared" si="2"/>
+        <v>132.5</v>
+      </c>
+      <c r="G115" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -2971,13 +3193,18 @@
         <v>37</v>
       </c>
       <c r="D116" s="3">
-        <v>0</v>
-      </c>
-      <c r="E116" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+        <v>142.70000000000002</v>
+      </c>
+      <c r="E116" s="3">
+        <f t="shared" si="2"/>
+        <v>152.70000000000002</v>
+      </c>
+      <c r="G116" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>171.9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -2988,13 +3215,18 @@
         <v>36</v>
       </c>
       <c r="D117" s="3">
-        <v>0</v>
-      </c>
-      <c r="E117" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20.700000000000003</v>
+      </c>
+      <c r="E117" s="3">
+        <f t="shared" si="2"/>
+        <v>30.700000000000003</v>
+      </c>
+      <c r="G117" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>85.300000000000011</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -3005,13 +3237,18 @@
         <v>18</v>
       </c>
       <c r="D118" s="3">
-        <v>0</v>
-      </c>
-      <c r="E118" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+        <v>102.4</v>
+      </c>
+      <c r="E118" s="3">
+        <f t="shared" si="2"/>
+        <v>112.4</v>
+      </c>
+      <c r="G118" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>186.60000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -3022,13 +3259,18 @@
         <v>26</v>
       </c>
       <c r="D119" s="3">
-        <v>0</v>
-      </c>
-      <c r="E119" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+        <v>195.60000000000002</v>
+      </c>
+      <c r="E119" s="3">
+        <f t="shared" si="2"/>
+        <v>205.60000000000002</v>
+      </c>
+      <c r="G119" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>89.800000000000011</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -3039,13 +3281,18 @@
         <v>27</v>
       </c>
       <c r="D120" s="3">
-        <v>0</v>
-      </c>
-      <c r="E120" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+        <v>78.100000000000009</v>
+      </c>
+      <c r="E120" s="3">
+        <f t="shared" si="2"/>
+        <v>88.100000000000009</v>
+      </c>
+      <c r="G120" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>131.6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -3056,13 +3303,18 @@
         <v>28</v>
       </c>
       <c r="D121" s="3">
-        <v>0</v>
-      </c>
-      <c r="E121" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>112.5</v>
+      </c>
+      <c r="E121" s="3">
+        <f t="shared" si="2"/>
+        <v>122.5</v>
+      </c>
+      <c r="G121" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>114.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -3073,13 +3325,18 @@
         <v>46</v>
       </c>
       <c r="D122" s="3">
-        <v>0</v>
-      </c>
-      <c r="E122" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+        <v>182.20000000000002</v>
+      </c>
+      <c r="E122" s="3">
+        <f t="shared" si="2"/>
+        <v>192.20000000000002</v>
+      </c>
+      <c r="G122" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -3090,13 +3347,18 @@
         <v>8</v>
       </c>
       <c r="D123" s="3">
-        <v>0</v>
-      </c>
-      <c r="E123" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="E123" s="3">
+        <f t="shared" si="2"/>
+        <v>86.4</v>
+      </c>
+      <c r="G123" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45.400000000000006</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -3107,13 +3369,18 @@
         <v>16</v>
       </c>
       <c r="D124" s="3">
-        <v>0</v>
-      </c>
-      <c r="E124" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52.7</v>
+      </c>
+      <c r="E124" s="3">
+        <f t="shared" si="2"/>
+        <v>62.7</v>
+      </c>
+      <c r="G124" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -3124,13 +3391,18 @@
         <v>18</v>
       </c>
       <c r="D125" s="3">
-        <v>0</v>
-      </c>
-      <c r="E125" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+        <v>157.9</v>
+      </c>
+      <c r="E125" s="3">
+        <f t="shared" si="2"/>
+        <v>167.9</v>
+      </c>
+      <c r="G125" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>144.70000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -3141,13 +3413,18 @@
         <v>6</v>
       </c>
       <c r="D126" s="3">
-        <v>0</v>
-      </c>
-      <c r="E126" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+        <v>145.1</v>
+      </c>
+      <c r="E126" s="3">
+        <f t="shared" si="2"/>
+        <v>155.1</v>
+      </c>
+      <c r="G126" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -3158,13 +3435,18 @@
         <v>10</v>
       </c>
       <c r="D127" s="3">
-        <v>0</v>
-      </c>
-      <c r="E127" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+        <v>22.6</v>
+      </c>
+      <c r="E127" s="3">
+        <f t="shared" si="2"/>
+        <v>32.6</v>
+      </c>
+      <c r="G127" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>132.9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -3175,13 +3457,18 @@
         <v>17</v>
       </c>
       <c r="D128" s="3">
-        <v>0</v>
-      </c>
-      <c r="E128" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91.2</v>
+      </c>
+      <c r="E128" s="3">
+        <f t="shared" si="2"/>
+        <v>101.2</v>
+      </c>
+      <c r="G128" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>180.4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -3192,13 +3479,18 @@
         <v>2</v>
       </c>
       <c r="D129" s="3">
-        <v>0</v>
-      </c>
-      <c r="E129" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+        <v>88.800000000000011</v>
+      </c>
+      <c r="E129" s="3">
+        <f t="shared" si="2"/>
+        <v>98.800000000000011</v>
+      </c>
+      <c r="G129" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>119.7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -3209,13 +3501,18 @@
         <v>16</v>
       </c>
       <c r="D130" s="3">
-        <v>0</v>
-      </c>
-      <c r="E130" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+        <v>172.5</v>
+      </c>
+      <c r="E130" s="3">
+        <f t="shared" si="2"/>
+        <v>182.5</v>
+      </c>
+      <c r="G130" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -3226,13 +3523,18 @@
         <v>47</v>
       </c>
       <c r="D131" s="3">
-        <v>0</v>
-      </c>
-      <c r="E131" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+        <v>152.9</v>
+      </c>
+      <c r="E131" s="3">
+        <f t="shared" ref="E131:E194" si="4">D131+10</f>
+        <v>162.9</v>
+      </c>
+      <c r="G131" s="3">
+        <f t="shared" ref="G131:G151" ca="1" si="5">FLOOR( RAND()*200,0.1)</f>
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -3243,13 +3545,18 @@
         <v>15</v>
       </c>
       <c r="D132" s="3">
-        <v>0</v>
-      </c>
-      <c r="E132" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23.1</v>
+      </c>
+      <c r="E132" s="3">
+        <f t="shared" si="4"/>
+        <v>33.1</v>
+      </c>
+      <c r="G132" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>123.30000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -3260,13 +3567,18 @@
         <v>14</v>
       </c>
       <c r="D133" s="3">
-        <v>0</v>
-      </c>
-      <c r="E133" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+        <v>103.9</v>
+      </c>
+      <c r="E133" s="3">
+        <f t="shared" si="4"/>
+        <v>113.9</v>
+      </c>
+      <c r="G133" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>196.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -3277,13 +3589,18 @@
         <v>13</v>
       </c>
       <c r="D134" s="3">
-        <v>0</v>
-      </c>
-      <c r="E134" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+        <v>162.30000000000001</v>
+      </c>
+      <c r="E134" s="3">
+        <f t="shared" si="4"/>
+        <v>172.3</v>
+      </c>
+      <c r="G134" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>177.8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -3294,13 +3611,18 @@
         <v>12</v>
       </c>
       <c r="D135" s="3">
-        <v>0</v>
-      </c>
-      <c r="E135" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68.7</v>
+      </c>
+      <c r="E135" s="3">
+        <f t="shared" si="4"/>
+        <v>78.7</v>
+      </c>
+      <c r="G135" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -3311,13 +3633,18 @@
         <v>3</v>
       </c>
       <c r="D136" s="3">
-        <v>0</v>
-      </c>
-      <c r="E136" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+        <v>179.70000000000002</v>
+      </c>
+      <c r="E136" s="3">
+        <f t="shared" si="4"/>
+        <v>189.70000000000002</v>
+      </c>
+      <c r="G136" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>139.80000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -3328,13 +3655,18 @@
         <v>49</v>
       </c>
       <c r="D137" s="3">
-        <v>0</v>
-      </c>
-      <c r="E137" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23.400000000000002</v>
+      </c>
+      <c r="E137" s="3">
+        <f t="shared" si="4"/>
+        <v>33.400000000000006</v>
+      </c>
+      <c r="G137" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -3345,13 +3677,18 @@
         <v>18</v>
       </c>
       <c r="D138" s="3">
-        <v>0</v>
-      </c>
-      <c r="E138" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+        <v>131.1</v>
+      </c>
+      <c r="E138" s="3">
+        <f t="shared" si="4"/>
+        <v>141.1</v>
+      </c>
+      <c r="G138" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -3362,13 +3699,18 @@
         <v>26</v>
       </c>
       <c r="D139" s="3">
-        <v>0</v>
-      </c>
-      <c r="E139" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49.900000000000006</v>
+      </c>
+      <c r="E139" s="3">
+        <f t="shared" si="4"/>
+        <v>59.900000000000006</v>
+      </c>
+      <c r="G139" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -3379,13 +3721,18 @@
         <v>27</v>
       </c>
       <c r="D140" s="3">
-        <v>0</v>
-      </c>
-      <c r="E140" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52.6</v>
+      </c>
+      <c r="E140" s="3">
+        <f t="shared" si="4"/>
+        <v>62.6</v>
+      </c>
+      <c r="G140" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -3396,13 +3743,18 @@
         <v>28</v>
       </c>
       <c r="D141" s="3">
-        <v>0</v>
-      </c>
-      <c r="E141" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+        <v>123.9</v>
+      </c>
+      <c r="E141" s="3">
+        <f t="shared" si="4"/>
+        <v>133.9</v>
+      </c>
+      <c r="G141" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>124.7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -3413,13 +3765,18 @@
         <v>46</v>
       </c>
       <c r="D142" s="3">
-        <v>0</v>
-      </c>
-      <c r="E142" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+        <v>179.10000000000002</v>
+      </c>
+      <c r="E142" s="3">
+        <f t="shared" si="4"/>
+        <v>189.10000000000002</v>
+      </c>
+      <c r="G142" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>58.900000000000006</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -3430,13 +3787,18 @@
         <v>8</v>
       </c>
       <c r="D143" s="3">
-        <v>0</v>
-      </c>
-      <c r="E143" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+        <v>182.5</v>
+      </c>
+      <c r="E143" s="3">
+        <f t="shared" si="4"/>
+        <v>192.5</v>
+      </c>
+      <c r="G143" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>123.10000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -3447,13 +3809,18 @@
         <v>16</v>
       </c>
       <c r="D144" s="3">
-        <v>0</v>
-      </c>
-      <c r="E144" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+        <v>109.30000000000001</v>
+      </c>
+      <c r="E144" s="3">
+        <f t="shared" si="4"/>
+        <v>119.30000000000001</v>
+      </c>
+      <c r="G144" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>164.60000000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -3464,98 +3831,128 @@
         <v>18</v>
       </c>
       <c r="D145" s="3">
-        <v>0</v>
-      </c>
-      <c r="E145" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+        <v>154.70000000000002</v>
+      </c>
+      <c r="E145" s="3">
+        <f t="shared" si="4"/>
+        <v>164.70000000000002</v>
+      </c>
+      <c r="G145" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>71.100000000000009</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>145</v>
       </c>
-      <c r="B146" s="1">
-        <v>2</v>
-      </c>
-      <c r="C146" s="1">
-        <v>6</v>
+      <c r="B146" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D146" s="3">
-        <v>0</v>
-      </c>
-      <c r="E146" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+        <v>189.70000000000002</v>
+      </c>
+      <c r="E146" s="3">
+        <f t="shared" si="4"/>
+        <v>199.70000000000002</v>
+      </c>
+      <c r="G146" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D147" s="3">
-        <v>0</v>
-      </c>
-      <c r="E147" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6.1000000000000005</v>
+      </c>
+      <c r="E147" s="3">
+        <f t="shared" si="4"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G147" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>47.400000000000006</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D148" s="3">
-        <v>0</v>
-      </c>
-      <c r="E148" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+        <v>59.7</v>
+      </c>
+      <c r="E148" s="3">
+        <f t="shared" si="4"/>
+        <v>69.7</v>
+      </c>
+      <c r="G148" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>112.2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>148</v>
       </c>
-      <c r="B149" s="1">
-        <v>3</v>
-      </c>
-      <c r="C149" s="1">
-        <v>2</v>
+      <c r="B149" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D149" s="3">
-        <v>0</v>
-      </c>
-      <c r="E149" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="E149" s="3">
+        <f t="shared" si="4"/>
+        <v>154</v>
+      </c>
+      <c r="G149" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D150" s="3">
-        <v>0</v>
-      </c>
-      <c r="E150" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+        <v>136.70000000000002</v>
+      </c>
+      <c r="E150" s="3">
+        <f t="shared" si="4"/>
+        <v>146.70000000000002</v>
+      </c>
+      <c r="G150" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>77.300000000000011</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -3566,13 +3963,18 @@
         <v>47</v>
       </c>
       <c r="D151" s="3">
-        <v>0</v>
-      </c>
-      <c r="E151" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+        <v>126.4</v>
+      </c>
+      <c r="E151" s="3">
+        <f t="shared" si="4"/>
+        <v>136.4</v>
+      </c>
+      <c r="G151" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -3585,11 +3987,12 @@
       <c r="D152" s="3">
         <v>0</v>
       </c>
-      <c r="E152" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E152" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -3602,11 +4005,12 @@
       <c r="D153" s="3">
         <v>0</v>
       </c>
-      <c r="E153" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E153" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -3619,11 +4023,12 @@
       <c r="D154" s="3">
         <v>0</v>
       </c>
-      <c r="E154" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E154" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -3636,11 +4041,12 @@
       <c r="D155" s="3">
         <v>0</v>
       </c>
-      <c r="E155" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E155" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -3653,11 +4059,12 @@
       <c r="D156" s="3">
         <v>0</v>
       </c>
-      <c r="E156" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E156" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -3670,11 +4077,12 @@
       <c r="D157" s="3">
         <v>0</v>
       </c>
-      <c r="E157" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E157" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -3687,11 +4095,12 @@
       <c r="D158" s="3">
         <v>0</v>
       </c>
-      <c r="E158" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E158" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -3704,11 +4113,12 @@
       <c r="D159" s="3">
         <v>0</v>
       </c>
-      <c r="E159" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E159" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -3721,7 +4131,8 @@
       <c r="D160" s="3">
         <v>0</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E160" s="3">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -3738,8 +4149,9 @@
       <c r="D161" s="3">
         <v>0</v>
       </c>
-      <c r="E161" s="1">
-        <v>12</v>
+      <c r="E161" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -3755,8 +4167,9 @@
       <c r="D162" s="3">
         <v>0</v>
       </c>
-      <c r="E162" s="1">
-        <v>20</v>
+      <c r="E162" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -3772,8 +4185,9 @@
       <c r="D163" s="3">
         <v>0</v>
       </c>
-      <c r="E163" s="1">
-        <v>13</v>
+      <c r="E163" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -3789,8 +4203,9 @@
       <c r="D164" s="3">
         <v>0</v>
       </c>
-      <c r="E164" s="1">
-        <v>14</v>
+      <c r="E164" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -3806,8 +4221,9 @@
       <c r="D165" s="3">
         <v>0</v>
       </c>
-      <c r="E165" s="1">
-        <v>13</v>
+      <c r="E165" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -3823,8 +4239,9 @@
       <c r="D166" s="3">
         <v>0</v>
       </c>
-      <c r="E166" s="1">
-        <v>20</v>
+      <c r="E166" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -3840,8 +4257,9 @@
       <c r="D167" s="3">
         <v>0</v>
       </c>
-      <c r="E167" s="1">
-        <v>21</v>
+      <c r="E167" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -3857,8 +4275,9 @@
       <c r="D168" s="3">
         <v>0</v>
       </c>
-      <c r="E168" s="1">
-        <v>25</v>
+      <c r="E168" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -3874,8 +4293,9 @@
       <c r="D169" s="3">
         <v>0</v>
       </c>
-      <c r="E169" s="1">
-        <v>19</v>
+      <c r="E169" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -3891,8 +4311,9 @@
       <c r="D170" s="3">
         <v>0</v>
       </c>
-      <c r="E170" s="1">
-        <v>30</v>
+      <c r="E170" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -3908,8 +4329,9 @@
       <c r="D171" s="3">
         <v>0</v>
       </c>
-      <c r="E171" s="1">
-        <v>6</v>
+      <c r="E171" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -3925,8 +4347,9 @@
       <c r="D172" s="3">
         <v>0</v>
       </c>
-      <c r="E172" s="1">
-        <v>4</v>
+      <c r="E172" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -3942,8 +4365,9 @@
       <c r="D173" s="3">
         <v>0</v>
       </c>
-      <c r="E173" s="1">
-        <v>11</v>
+      <c r="E173" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -3959,8 +4383,9 @@
       <c r="D174" s="3">
         <v>0</v>
       </c>
-      <c r="E174" s="1">
-        <v>7</v>
+      <c r="E174" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -3976,7 +4401,8 @@
       <c r="D175" s="3">
         <v>0</v>
       </c>
-      <c r="E175" s="1">
+      <c r="E175" s="3">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -3993,7 +4419,8 @@
       <c r="D176" s="3">
         <v>0</v>
       </c>
-      <c r="E176" s="1">
+      <c r="E176" s="3">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -4010,8 +4437,9 @@
       <c r="D177" s="3">
         <v>0</v>
       </c>
-      <c r="E177" s="1">
-        <v>8</v>
+      <c r="E177" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -4027,8 +4455,9 @@
       <c r="D178" s="3">
         <v>0</v>
       </c>
-      <c r="E178" s="1">
-        <v>4</v>
+      <c r="E178" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -4044,8 +4473,9 @@
       <c r="D179" s="3">
         <v>0</v>
       </c>
-      <c r="E179" s="1">
-        <v>7</v>
+      <c r="E179" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -4061,7 +4491,8 @@
       <c r="D180" s="3">
         <v>0</v>
       </c>
-      <c r="E180" s="1">
+      <c r="E180" s="3">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -4078,8 +4509,9 @@
       <c r="D181" s="3">
         <v>0</v>
       </c>
-      <c r="E181" s="1">
-        <v>12</v>
+      <c r="E181" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -4095,8 +4527,9 @@
       <c r="D182" s="3">
         <v>0</v>
       </c>
-      <c r="E182" s="1">
-        <v>20</v>
+      <c r="E182" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -4112,8 +4545,9 @@
       <c r="D183" s="3">
         <v>0</v>
       </c>
-      <c r="E183" s="1">
-        <v>13</v>
+      <c r="E183" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -4129,8 +4563,9 @@
       <c r="D184" s="3">
         <v>0</v>
       </c>
-      <c r="E184" s="1">
-        <v>14</v>
+      <c r="E184" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -4146,8 +4581,9 @@
       <c r="D185" s="3">
         <v>0</v>
       </c>
-      <c r="E185" s="1">
-        <v>13</v>
+      <c r="E185" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -4163,8 +4599,9 @@
       <c r="D186" s="3">
         <v>0</v>
       </c>
-      <c r="E186" s="1">
-        <v>20</v>
+      <c r="E186" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -4180,8 +4617,9 @@
       <c r="D187" s="3">
         <v>0</v>
       </c>
-      <c r="E187" s="1">
-        <v>21</v>
+      <c r="E187" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -4197,8 +4635,9 @@
       <c r="D188" s="3">
         <v>0</v>
       </c>
-      <c r="E188" s="1">
-        <v>25</v>
+      <c r="E188" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -4214,8 +4653,9 @@
       <c r="D189" s="3">
         <v>0</v>
       </c>
-      <c r="E189" s="1">
-        <v>19</v>
+      <c r="E189" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -4231,8 +4671,9 @@
       <c r="D190" s="3">
         <v>0</v>
       </c>
-      <c r="E190" s="1">
-        <v>30</v>
+      <c r="E190" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -4248,8 +4689,9 @@
       <c r="D191" s="3">
         <v>0</v>
       </c>
-      <c r="E191" s="1">
-        <v>6</v>
+      <c r="E191" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -4265,8 +4707,9 @@
       <c r="D192" s="3">
         <v>0</v>
       </c>
-      <c r="E192" s="1">
-        <v>4</v>
+      <c r="E192" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -4282,8 +4725,9 @@
       <c r="D193" s="3">
         <v>0</v>
       </c>
-      <c r="E193" s="1">
-        <v>11</v>
+      <c r="E193" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -4299,8 +4743,9 @@
       <c r="D194" s="3">
         <v>0</v>
       </c>
-      <c r="E194" s="1">
-        <v>7</v>
+      <c r="E194" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -4316,8 +4761,9 @@
       <c r="D195" s="3">
         <v>0</v>
       </c>
-      <c r="E195" s="1">
-        <v>6</v>
+      <c r="E195" s="3">
+        <f t="shared" ref="E195:E201" si="6">D195+10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -4333,7 +4779,8 @@
       <c r="D196" s="3">
         <v>0</v>
       </c>
-      <c r="E196" s="1">
+      <c r="E196" s="3">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -4350,8 +4797,9 @@
       <c r="D197" s="3">
         <v>0</v>
       </c>
-      <c r="E197" s="1">
-        <v>8</v>
+      <c r="E197" s="3">
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -4367,8 +4815,9 @@
       <c r="D198" s="3">
         <v>0</v>
       </c>
-      <c r="E198" s="1">
-        <v>4</v>
+      <c r="E198" s="3">
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -4384,8 +4833,9 @@
       <c r="D199" s="3">
         <v>0</v>
       </c>
-      <c r="E199" s="1">
-        <v>7</v>
+      <c r="E199" s="3">
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -4401,7 +4851,8 @@
       <c r="D200" s="3">
         <v>0</v>
       </c>
-      <c r="E200" s="1">
+      <c r="E200" s="3">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -4418,8 +4869,9 @@
       <c r="D201" s="3">
         <v>0</v>
       </c>
-      <c r="E201" s="1">
-        <v>12</v>
+      <c r="E201" s="3">
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4431,10 +4883,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776CB3E9-940E-4B3A-AEBA-B9FE06DA2AEC}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4552,6 +5004,17 @@
         <v>34</v>
       </c>
       <c r="C10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1">
         <v>2</v>
       </c>
     </row>

--- a/Input00.xlsx
+++ b/Input00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCTemp\GPHH-Matrix-Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8196276-C78E-44CE-AD14-2AECC8D5D520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098585C3-B545-4BB9-99E4-8BE636C256F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="59">
   <si>
     <t>工序能力需求代号列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,22 +257,6 @@
   </si>
   <si>
     <t>2,7,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,5,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,1,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -626,7 +610,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="D52" sqref="D52:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -668,16 +652,16 @@
         <v>40</v>
       </c>
       <c r="D2" s="3">
-        <v>50.6</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
         <f>D2+10</f>
-        <v>60.6</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3">
         <f ca="1">FLOOR( RAND()*200,0.1)</f>
-        <v>40.1</v>
+        <v>34.300000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -691,16 +675,16 @@
         <v>8</v>
       </c>
       <c r="D3" s="3">
-        <v>107.60000000000001</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ref="E3:E66" si="0">D3+10</f>
-        <v>117.60000000000001</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3">
         <f t="shared" ref="G3:G66" ca="1" si="1">FLOOR( RAND()*200,0.1)</f>
-        <v>12</v>
+        <v>111.60000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -714,16 +698,16 @@
         <v>16</v>
       </c>
       <c r="D4" s="3">
-        <v>130.1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>140.1</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>80.900000000000006</v>
+        <v>77.800000000000011</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -737,16 +721,16 @@
         <v>18</v>
       </c>
       <c r="D5" s="3">
-        <v>175.5</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>185.5</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>101.60000000000001</v>
+        <v>107.60000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -760,16 +744,16 @@
         <v>42</v>
       </c>
       <c r="D6" s="3">
-        <v>152.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>162.30000000000001</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>190.10000000000002</v>
+        <v>4.8000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -783,16 +767,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="3">
-        <v>141.70000000000002</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>151.70000000000002</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>199.5</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -806,16 +790,16 @@
         <v>17</v>
       </c>
       <c r="D8" s="3">
-        <v>119.9</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>129.9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -829,16 +813,16 @@
         <v>31</v>
       </c>
       <c r="D9" s="3">
-        <v>131.1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>141.1</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>103.80000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -852,16 +836,16 @@
         <v>16</v>
       </c>
       <c r="D10" s="3">
-        <v>114.9</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>124.9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7</v>
+        <v>10.600000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -875,16 +859,16 @@
         <v>39</v>
       </c>
       <c r="D11" s="3">
-        <v>136.6</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>146.6</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>151.9</v>
+        <v>174.70000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -898,16 +882,16 @@
         <v>15</v>
       </c>
       <c r="D12" s="3">
-        <v>73.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>83.4</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>7.1000000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -921,16 +905,16 @@
         <v>14</v>
       </c>
       <c r="D13" s="3">
-        <v>89.7</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>99.7</v>
+        <v>10</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>146.4</v>
+        <v>143.20000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -944,16 +928,16 @@
         <v>13</v>
       </c>
       <c r="D14" s="3">
-        <v>174.9</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>184.9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>75.2</v>
+        <v>13.100000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -967,16 +951,16 @@
         <v>44</v>
       </c>
       <c r="D15" s="3">
-        <v>76.600000000000009</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="0"/>
-        <v>86.600000000000009</v>
+        <v>10</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>87.9</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -990,16 +974,16 @@
         <v>37</v>
       </c>
       <c r="D16" s="3">
-        <v>193.4</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>203.4</v>
+        <v>10</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>82.5</v>
+        <v>194.3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1013,16 +997,16 @@
         <v>36</v>
       </c>
       <c r="D17" s="3">
-        <v>49.800000000000004</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="0"/>
-        <v>59.800000000000004</v>
+        <v>10</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>94.800000000000011</v>
+        <v>8.2000000000000011</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1036,16 +1020,16 @@
         <v>18</v>
       </c>
       <c r="D18" s="3">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>183</v>
+        <v>78.400000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1059,15 +1043,15 @@
         <v>26</v>
       </c>
       <c r="D19" s="3">
-        <v>142.6</v>
+        <v>0</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
-        <v>152.6</v>
+        <v>10</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>122.80000000000001</v>
+        <v>150.4</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1081,15 +1065,15 @@
         <v>27</v>
       </c>
       <c r="D20" s="3">
-        <v>100.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="0"/>
-        <v>110.30000000000001</v>
+        <v>10</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>53.800000000000004</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1103,15 +1087,15 @@
         <v>28</v>
       </c>
       <c r="D21" s="3">
-        <v>106.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="0"/>
-        <v>116.30000000000001</v>
+        <v>10</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>70.100000000000009</v>
+        <v>196.60000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1125,15 +1109,15 @@
         <v>46</v>
       </c>
       <c r="D22" s="3">
-        <v>79.5</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="0"/>
-        <v>89.5</v>
+        <v>10</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>88.7</v>
+        <v>168.60000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1147,15 +1131,15 @@
         <v>8</v>
       </c>
       <c r="D23" s="3">
-        <v>128.9</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="0"/>
-        <v>138.9</v>
+        <v>10</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>157.10000000000002</v>
+        <v>7.6000000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1169,15 +1153,15 @@
         <v>16</v>
       </c>
       <c r="D24" s="3">
-        <v>187.70000000000002</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="0"/>
-        <v>197.70000000000002</v>
+        <v>10</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>108.5</v>
+        <v>162.4</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1191,15 +1175,15 @@
         <v>18</v>
       </c>
       <c r="D25" s="3">
-        <v>121.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="0"/>
-        <v>131.80000000000001</v>
+        <v>10</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>102.9</v>
+        <v>93.600000000000009</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1213,15 +1197,15 @@
         <v>50</v>
       </c>
       <c r="D26" s="3">
-        <v>15.9</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="0"/>
-        <v>25.9</v>
+        <v>10</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>110.60000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1235,15 +1219,15 @@
         <v>10</v>
       </c>
       <c r="D27" s="3">
-        <v>165.5</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="0"/>
-        <v>175.5</v>
+        <v>10</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>18.600000000000001</v>
+        <v>83.100000000000009</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1257,15 +1241,15 @@
         <v>17</v>
       </c>
       <c r="D28" s="3">
-        <v>11.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" si="0"/>
-        <v>21.1</v>
+        <v>10</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8000000000000007</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1279,15 +1263,15 @@
         <v>2</v>
       </c>
       <c r="D29" s="3">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>118.7</v>
+        <v>38.400000000000006</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1301,15 +1285,15 @@
         <v>16</v>
       </c>
       <c r="D30" s="3">
-        <v>52.6</v>
+        <v>0</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" si="0"/>
-        <v>62.6</v>
+        <v>10</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>90.7</v>
+        <v>20.400000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1323,15 +1307,15 @@
         <v>47</v>
       </c>
       <c r="D31" s="3">
-        <v>62.2</v>
+        <v>0</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" si="0"/>
-        <v>72.2</v>
+        <v>10</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>88.9</v>
+        <v>146.6</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1345,15 +1329,15 @@
         <v>15</v>
       </c>
       <c r="D32" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>38.1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1367,15 +1351,15 @@
         <v>14</v>
       </c>
       <c r="D33" s="3">
-        <v>137.6</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="0"/>
-        <v>147.6</v>
+        <v>10</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>33.200000000000003</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1389,15 +1373,15 @@
         <v>13</v>
       </c>
       <c r="D34" s="3">
-        <v>106.5</v>
+        <v>0</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" si="0"/>
-        <v>116.5</v>
+        <v>10</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>100.10000000000001</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1411,15 +1395,15 @@
         <v>12</v>
       </c>
       <c r="D35" s="3">
-        <v>4.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" si="0"/>
-        <v>14.8</v>
+        <v>10</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>62.7</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1433,15 +1417,15 @@
         <v>52</v>
       </c>
       <c r="D36" s="3">
-        <v>5.6000000000000005</v>
+        <v>0</v>
       </c>
       <c r="E36" s="3">
         <f t="shared" si="0"/>
-        <v>15.600000000000001</v>
+        <v>10</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>27.900000000000002</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1455,15 +1439,15 @@
         <v>49</v>
       </c>
       <c r="D37" s="3">
-        <v>166.20000000000002</v>
+        <v>0</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" si="0"/>
-        <v>176.20000000000002</v>
+        <v>10</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>186.60000000000002</v>
+        <v>8.7000000000000011</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1477,15 +1461,15 @@
         <v>18</v>
       </c>
       <c r="D38" s="3">
-        <v>169.8</v>
+        <v>0</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" si="0"/>
-        <v>179.8</v>
+        <v>10</v>
       </c>
       <c r="G38" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>191.60000000000002</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1499,15 +1483,15 @@
         <v>26</v>
       </c>
       <c r="D39" s="3">
-        <v>105.2</v>
+        <v>0</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" si="0"/>
-        <v>115.2</v>
+        <v>10</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>15.700000000000001</v>
+        <v>62.300000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1521,15 +1505,15 @@
         <v>27</v>
       </c>
       <c r="D40" s="3">
-        <v>94.4</v>
+        <v>0</v>
       </c>
       <c r="E40" s="3">
         <f t="shared" si="0"/>
-        <v>104.4</v>
+        <v>10</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>67.8</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1543,15 +1527,15 @@
         <v>28</v>
       </c>
       <c r="D41" s="3">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>192.70000000000002</v>
+        <v>169.4</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1565,15 +1549,15 @@
         <v>46</v>
       </c>
       <c r="D42" s="3">
-        <v>137.4</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
         <f t="shared" si="0"/>
-        <v>147.4</v>
+        <v>10</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>159.60000000000002</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1587,15 +1571,15 @@
         <v>8</v>
       </c>
       <c r="D43" s="3">
-        <v>167.70000000000002</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" si="0"/>
-        <v>177.70000000000002</v>
+        <v>10</v>
       </c>
       <c r="G43" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>170.4</v>
+        <v>50.300000000000004</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1609,15 +1593,15 @@
         <v>16</v>
       </c>
       <c r="D44" s="3">
-        <v>136.1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" si="0"/>
-        <v>146.1</v>
+        <v>10</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>95.300000000000011</v>
+        <v>143.4</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1631,15 +1615,15 @@
         <v>18</v>
       </c>
       <c r="D45" s="3">
-        <v>36.9</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" si="0"/>
-        <v>46.9</v>
+        <v>10</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>38.6</v>
+        <v>189.10000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1653,15 +1637,15 @@
         <v>6</v>
       </c>
       <c r="D46" s="3">
-        <v>6.1000000000000005</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" si="0"/>
-        <v>16.100000000000001</v>
+        <v>10</v>
       </c>
       <c r="G46" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3000000000000007</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1675,15 +1659,15 @@
         <v>10</v>
       </c>
       <c r="D47" s="3">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G47" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>131</v>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1697,15 +1681,15 @@
         <v>17</v>
       </c>
       <c r="D48" s="3">
-        <v>191.8</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" si="0"/>
-        <v>201.8</v>
+        <v>10</v>
       </c>
       <c r="G48" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>75.900000000000006</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1719,15 +1703,15 @@
         <v>53</v>
       </c>
       <c r="D49" s="3">
-        <v>33.4</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" si="0"/>
-        <v>43.4</v>
+        <v>10</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>165.60000000000002</v>
+        <v>125.7</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1741,15 +1725,15 @@
         <v>16</v>
       </c>
       <c r="D50" s="3">
-        <v>71.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" si="0"/>
-        <v>81.900000000000006</v>
+        <v>10</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>150.30000000000001</v>
+        <v>51.800000000000004</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1763,15 +1747,15 @@
         <v>47</v>
       </c>
       <c r="D51" s="3">
-        <v>154.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="E51" s="3">
         <f t="shared" si="0"/>
-        <v>164.3</v>
+        <v>10</v>
       </c>
       <c r="G51" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>101.9</v>
+        <v>82.9</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -1785,15 +1769,16 @@
         <v>40</v>
       </c>
       <c r="D52" s="3">
-        <v>170.9</v>
+        <f ca="1">FLOOR( RAND()*200,0.1)</f>
+        <v>110.10000000000001</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="0"/>
-        <v>180.9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>120.10000000000001</v>
       </c>
       <c r="G52" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>142.20000000000002</v>
+        <v>15.600000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -1807,15 +1792,16 @@
         <v>8</v>
       </c>
       <c r="D53" s="3">
-        <v>149.1</v>
+        <f t="shared" ref="D53:D101" ca="1" si="2">FLOOR( RAND()*200,0.1)</f>
+        <v>158.70000000000002</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="0"/>
-        <v>159.1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>168.70000000000002</v>
       </c>
       <c r="G53" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>194.4</v>
+        <v>123.9</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1829,15 +1815,16 @@
         <v>16</v>
       </c>
       <c r="D54" s="3">
-        <v>91.2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>146.4</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="0"/>
-        <v>101.2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>156.4</v>
       </c>
       <c r="G54" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -1851,15 +1838,16 @@
         <v>18</v>
       </c>
       <c r="D55" s="3">
-        <v>101.2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>119.10000000000001</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="0"/>
-        <v>111.2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>129.10000000000002</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>158</v>
+        <v>187.70000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -1873,15 +1861,16 @@
         <v>42</v>
       </c>
       <c r="D56" s="3">
-        <v>190.8</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="0"/>
-        <v>200.8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11.3</v>
       </c>
       <c r="G56" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7</v>
+        <v>135.6</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -1895,15 +1884,16 @@
         <v>10</v>
       </c>
       <c r="D57" s="3">
-        <v>73.2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>123.4</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="0"/>
-        <v>83.2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>133.4</v>
       </c>
       <c r="G57" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>126.9</v>
+        <v>1.9000000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -1917,15 +1907,16 @@
         <v>17</v>
       </c>
       <c r="D58" s="3">
-        <v>83.9</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>27.900000000000002</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="0"/>
-        <v>93.9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>37.900000000000006</v>
       </c>
       <c r="G58" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>150.4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -1939,15 +1930,16 @@
         <v>31</v>
       </c>
       <c r="D59" s="3">
-        <v>34.300000000000004</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>44.1</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="0"/>
-        <v>44.300000000000004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>54.1</v>
       </c>
       <c r="G59" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>187.70000000000002</v>
+        <v>142.9</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -1961,15 +1953,16 @@
         <v>16</v>
       </c>
       <c r="D60" s="3">
-        <v>120.2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>125.10000000000001</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="0"/>
-        <v>130.19999999999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>135.10000000000002</v>
       </c>
       <c r="G60" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>133.30000000000001</v>
+        <v>41.900000000000006</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -1983,15 +1976,16 @@
         <v>39</v>
       </c>
       <c r="D61" s="3">
-        <v>198.4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>91.9</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="0"/>
-        <v>208.4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>101.9</v>
       </c>
       <c r="G61" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>21.6</v>
+        <v>29.700000000000003</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2005,15 +1999,16 @@
         <v>15</v>
       </c>
       <c r="D62" s="3">
-        <v>102.60000000000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11.3</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="0"/>
-        <v>112.60000000000001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>21.3</v>
       </c>
       <c r="G62" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>110.7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -2027,15 +2022,16 @@
         <v>14</v>
       </c>
       <c r="D63" s="3">
-        <v>187.10000000000002</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>59.900000000000006</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="0"/>
-        <v>197.10000000000002</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>69.900000000000006</v>
       </c>
       <c r="G63" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>155.60000000000002</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2049,15 +2045,16 @@
         <v>13</v>
       </c>
       <c r="D64" s="3">
-        <v>93.7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>136.6</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="0"/>
-        <v>103.7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>146.6</v>
       </c>
       <c r="G64" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>72.7</v>
+        <v>189.60000000000002</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2071,15 +2068,16 @@
         <v>44</v>
       </c>
       <c r="D65" s="3">
-        <v>157</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>129</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="0"/>
-        <v>167</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>139</v>
       </c>
       <c r="G65" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>44.400000000000006</v>
+        <v>123.30000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2093,15 +2091,16 @@
         <v>37</v>
       </c>
       <c r="D66" s="3">
-        <v>190.70000000000002</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>151.6</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" si="0"/>
-        <v>200.70000000000002</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>161.6</v>
       </c>
       <c r="G66" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>146.4</v>
+        <v>47.300000000000004</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2115,15 +2114,16 @@
         <v>36</v>
       </c>
       <c r="D67" s="3">
-        <v>63</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>64.8</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" ref="E67:E130" si="2">D67+10</f>
-        <v>73</v>
+        <f t="shared" ref="E67:E101" ca="1" si="3">D67+10</f>
+        <v>74.8</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" ref="G67:G130" ca="1" si="3">FLOOR( RAND()*200,0.1)</f>
-        <v>162</v>
+        <f t="shared" ref="G67:G101" ca="1" si="4">FLOOR( RAND()*200,0.1)</f>
+        <v>171.3</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2137,15 +2137,16 @@
         <v>18</v>
       </c>
       <c r="D68" s="3">
-        <v>11.4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>23.6</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" si="2"/>
-        <v>21.4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>33.6</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>46.400000000000006</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2159,15 +2160,16 @@
         <v>26</v>
       </c>
       <c r="D69" s="3">
-        <v>181.5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>177.20000000000002</v>
       </c>
       <c r="E69" s="3">
-        <f t="shared" si="2"/>
-        <v>191.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>187.20000000000002</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>139.6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>63.6</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2181,15 +2183,16 @@
         <v>27</v>
       </c>
       <c r="D70" s="3">
-        <v>43.1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>25.900000000000002</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" si="2"/>
-        <v>53.1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>35.900000000000006</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>160.4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>169.20000000000002</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2203,15 +2206,16 @@
         <v>28</v>
       </c>
       <c r="D71" s="3">
-        <v>46.900000000000006</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>129.9</v>
       </c>
       <c r="E71" s="3">
-        <f t="shared" si="2"/>
-        <v>56.900000000000006</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>139.9</v>
       </c>
       <c r="G71" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>180</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>148.9</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2225,15 +2229,16 @@
         <v>46</v>
       </c>
       <c r="D72" s="3">
-        <v>16.5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>144.5</v>
       </c>
       <c r="E72" s="3">
-        <f t="shared" si="2"/>
-        <v>26.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>154.5</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>108.5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>93.7</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2247,15 +2252,16 @@
         <v>8</v>
       </c>
       <c r="D73" s="3">
-        <v>155</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>52.6</v>
       </c>
       <c r="E73" s="3">
-        <f t="shared" si="2"/>
-        <v>165</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>62.6</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2269,15 +2275,16 @@
         <v>16</v>
       </c>
       <c r="D74" s="3">
-        <v>41.2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>89.4</v>
       </c>
       <c r="E74" s="3">
-        <f t="shared" si="2"/>
-        <v>51.2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>99.4</v>
       </c>
       <c r="G74" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>187</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.9</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -2291,15 +2298,16 @@
         <v>18</v>
       </c>
       <c r="D75" s="3">
-        <v>111.2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>16.7</v>
       </c>
       <c r="E75" s="3">
-        <f t="shared" si="2"/>
-        <v>121.2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>26.7</v>
       </c>
       <c r="G75" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>166.5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>185.70000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2313,15 +2321,16 @@
         <v>6</v>
       </c>
       <c r="D76" s="3">
-        <v>135.30000000000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>29.3</v>
       </c>
       <c r="E76" s="3">
-        <f t="shared" si="2"/>
-        <v>145.30000000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>39.299999999999997</v>
       </c>
       <c r="G76" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>19.400000000000002</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9.7000000000000011</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -2335,15 +2344,16 @@
         <v>10</v>
       </c>
       <c r="D77" s="3">
-        <v>183.70000000000002</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="E77" s="3">
-        <f t="shared" si="2"/>
-        <v>193.70000000000002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10.199999999999999</v>
       </c>
       <c r="G77" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>19.100000000000001</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>25.900000000000002</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -2357,15 +2367,16 @@
         <v>17</v>
       </c>
       <c r="D78" s="3">
-        <v>124</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>198.9</v>
       </c>
       <c r="E78" s="3">
-        <f t="shared" si="2"/>
-        <v>134</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>208.9</v>
       </c>
       <c r="G78" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>52.2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>70.2</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -2379,15 +2390,16 @@
         <v>53</v>
       </c>
       <c r="D79" s="3">
-        <v>169.20000000000002</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>72.8</v>
       </c>
       <c r="E79" s="3">
-        <f t="shared" si="2"/>
-        <v>179.20000000000002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>82.8</v>
       </c>
       <c r="G79" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>84.4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>182.10000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -2401,15 +2413,16 @@
         <v>16</v>
       </c>
       <c r="D80" s="3">
-        <v>82.9</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.4</v>
       </c>
       <c r="E80" s="3">
-        <f t="shared" si="2"/>
-        <v>92.9</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42.4</v>
       </c>
       <c r="G80" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>187.60000000000002</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -2423,15 +2436,16 @@
         <v>47</v>
       </c>
       <c r="D81" s="3">
-        <v>174.60000000000002</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>132.4</v>
       </c>
       <c r="E81" s="3">
-        <f t="shared" si="2"/>
-        <v>184.60000000000002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>142.4</v>
       </c>
       <c r="G81" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>75.7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>62.2</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -2445,15 +2459,16 @@
         <v>15</v>
       </c>
       <c r="D82" s="3">
-        <v>72.2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11.700000000000001</v>
       </c>
       <c r="E82" s="3">
-        <f t="shared" si="2"/>
-        <v>82.2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>21.700000000000003</v>
       </c>
       <c r="G82" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>158.70000000000002</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>106.60000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -2467,15 +2482,16 @@
         <v>14</v>
       </c>
       <c r="D83" s="3">
-        <v>62.2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>112.7</v>
       </c>
       <c r="E83" s="3">
-        <f t="shared" si="2"/>
-        <v>72.2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>122.7</v>
       </c>
       <c r="G83" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>41.1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>126.5</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -2489,15 +2505,16 @@
         <v>13</v>
       </c>
       <c r="D84" s="3">
-        <v>68.100000000000009</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>33.700000000000003</v>
       </c>
       <c r="E84" s="3">
-        <f t="shared" si="2"/>
-        <v>78.100000000000009</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>43.7</v>
       </c>
       <c r="G84" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>83.7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12.3</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2511,15 +2528,16 @@
         <v>12</v>
       </c>
       <c r="D85" s="3">
-        <v>121.10000000000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>156.80000000000001</v>
       </c>
       <c r="E85" s="3">
-        <f t="shared" si="2"/>
-        <v>131.10000000000002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>166.8</v>
       </c>
       <c r="G85" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>121.7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -2533,15 +2551,16 @@
         <v>55</v>
       </c>
       <c r="D86" s="3">
-        <v>37.200000000000003</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>100.7</v>
       </c>
       <c r="E86" s="3">
-        <f t="shared" si="2"/>
-        <v>47.2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>110.7</v>
       </c>
       <c r="G86" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>161.20000000000002</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -2555,15 +2574,16 @@
         <v>49</v>
       </c>
       <c r="D87" s="3">
-        <v>120.2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>179.70000000000002</v>
       </c>
       <c r="E87" s="3">
-        <f t="shared" si="2"/>
-        <v>130.19999999999999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>189.70000000000002</v>
       </c>
       <c r="G87" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>109.10000000000001</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>33.200000000000003</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -2577,15 +2597,16 @@
         <v>18</v>
       </c>
       <c r="D88" s="3">
-        <v>67.7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>77.800000000000011</v>
       </c>
       <c r="E88" s="3">
-        <f t="shared" si="2"/>
-        <v>77.7</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>87.800000000000011</v>
       </c>
       <c r="G88" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>192.3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>193.10000000000002</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -2599,15 +2620,16 @@
         <v>26</v>
       </c>
       <c r="D89" s="3">
-        <v>33.6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>164.4</v>
       </c>
       <c r="E89" s="3">
-        <f t="shared" si="2"/>
-        <v>43.6</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>174.4</v>
       </c>
       <c r="G89" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>80.5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.1</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -2621,15 +2643,16 @@
         <v>27</v>
       </c>
       <c r="D90" s="3">
-        <v>23.8</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>98.2</v>
       </c>
       <c r="E90" s="3">
-        <f t="shared" si="2"/>
-        <v>33.799999999999997</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>108.2</v>
       </c>
       <c r="G90" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>11.700000000000001</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>86.5</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -2643,15 +2666,16 @@
         <v>28</v>
       </c>
       <c r="D91" s="3">
-        <v>194.3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>103.60000000000001</v>
       </c>
       <c r="E91" s="3">
-        <f t="shared" si="2"/>
-        <v>204.3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>113.60000000000001</v>
       </c>
       <c r="G91" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>87.100000000000009</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -2665,15 +2689,16 @@
         <v>46</v>
       </c>
       <c r="D92" s="3">
-        <v>154.80000000000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>111.7</v>
       </c>
       <c r="E92" s="3">
-        <f t="shared" si="2"/>
-        <v>164.8</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>121.7</v>
       </c>
       <c r="G92" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>198.70000000000002</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>42.800000000000004</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -2687,15 +2712,16 @@
         <v>8</v>
       </c>
       <c r="D93" s="3">
-        <v>98.800000000000011</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42.400000000000006</v>
       </c>
       <c r="E93" s="3">
-        <f t="shared" si="2"/>
-        <v>108.80000000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>52.400000000000006</v>
       </c>
       <c r="G93" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>92.600000000000009</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.7</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -2709,15 +2735,16 @@
         <v>16</v>
       </c>
       <c r="D94" s="3">
-        <v>70.900000000000006</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
       </c>
       <c r="E94" s="3">
-        <f t="shared" si="2"/>
-        <v>80.900000000000006</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
       </c>
       <c r="G94" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>149.70000000000002</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>87.5</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -2731,15 +2758,16 @@
         <v>18</v>
       </c>
       <c r="D95" s="3">
-        <v>91.2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>62.6</v>
       </c>
       <c r="E95" s="3">
-        <f t="shared" si="2"/>
-        <v>101.2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>72.599999999999994</v>
       </c>
       <c r="G95" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>79.300000000000011</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>146.70000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -2753,15 +2781,16 @@
         <v>6</v>
       </c>
       <c r="D96" s="3">
-        <v>126.7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>197.10000000000002</v>
       </c>
       <c r="E96" s="3">
-        <f t="shared" si="2"/>
-        <v>136.69999999999999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>207.10000000000002</v>
       </c>
       <c r="G96" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>86.300000000000011</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>170.20000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -2775,15 +2804,16 @@
         <v>10</v>
       </c>
       <c r="D97" s="3">
-        <v>14.100000000000001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>142.80000000000001</v>
       </c>
       <c r="E97" s="3">
-        <f t="shared" si="2"/>
-        <v>24.1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>152.80000000000001</v>
       </c>
       <c r="G97" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>15.600000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -2797,15 +2827,16 @@
         <v>17</v>
       </c>
       <c r="D98" s="3">
-        <v>32.6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>58.5</v>
       </c>
       <c r="E98" s="3">
-        <f t="shared" si="2"/>
-        <v>42.6</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>68.5</v>
       </c>
       <c r="G98" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>103.5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>131.6</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -2819,15 +2850,16 @@
         <v>57</v>
       </c>
       <c r="D99" s="3">
-        <v>116.5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>111.9</v>
       </c>
       <c r="E99" s="3">
-        <f t="shared" si="2"/>
-        <v>126.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>121.9</v>
       </c>
       <c r="G99" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>128.4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>144.9</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -2841,15 +2873,16 @@
         <v>16</v>
       </c>
       <c r="D100" s="3">
-        <v>25.5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>193.20000000000002</v>
       </c>
       <c r="E100" s="3">
-        <f t="shared" si="2"/>
-        <v>35.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>203.20000000000002</v>
       </c>
       <c r="G100" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>108.80000000000001</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>56.1</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -2863,2016 +2896,567 @@
         <v>47</v>
       </c>
       <c r="D101" s="3">
-        <v>179.10000000000002</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.1</v>
       </c>
       <c r="E101" s="3">
-        <f t="shared" si="2"/>
-        <v>189.10000000000002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>40.1</v>
       </c>
       <c r="G101" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>123.4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>131.4</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
-        <v>101</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D102" s="3">
-        <v>59.300000000000004</v>
-      </c>
-      <c r="E102" s="3">
-        <f t="shared" si="2"/>
-        <v>69.300000000000011</v>
-      </c>
-      <c r="G102" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>194</v>
-      </c>
+      <c r="A102" s="2"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="G102" s="3"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="2">
-        <v>102</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="3">
-        <v>174</v>
-      </c>
-      <c r="E103" s="3">
-        <f t="shared" si="2"/>
-        <v>184</v>
-      </c>
-      <c r="G103" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>132.70000000000002</v>
-      </c>
+      <c r="A103" s="2"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="G103" s="3"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
-        <v>103</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D104" s="3">
-        <v>31</v>
-      </c>
-      <c r="E104" s="3">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="G104" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>136</v>
-      </c>
+      <c r="A104" s="2"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="G104" s="3"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
-        <v>104</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D105" s="3">
-        <v>168.9</v>
-      </c>
-      <c r="E105" s="3">
-        <f t="shared" si="2"/>
-        <v>178.9</v>
-      </c>
-      <c r="G105" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>128</v>
-      </c>
+      <c r="A105" s="2"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="2">
-        <v>105</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D106" s="3">
-        <v>49.7</v>
-      </c>
-      <c r="E106" s="3">
-        <f t="shared" si="2"/>
-        <v>59.7</v>
-      </c>
-      <c r="G106" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>77.100000000000009</v>
-      </c>
+      <c r="A106" s="2"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="G106" s="3"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="2">
-        <v>106</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D107" s="3">
-        <v>132.80000000000001</v>
-      </c>
-      <c r="E107" s="3">
-        <f t="shared" si="2"/>
-        <v>142.80000000000001</v>
-      </c>
-      <c r="G107" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>88.7</v>
-      </c>
+      <c r="A107" s="2"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="G107" s="3"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="2">
-        <v>107</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="3">
-        <v>148.6</v>
-      </c>
-      <c r="E108" s="3">
-        <f t="shared" si="2"/>
-        <v>158.6</v>
-      </c>
-      <c r="G108" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>133.1</v>
-      </c>
+      <c r="A108" s="2"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="G108" s="3"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
-        <v>108</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D109" s="3">
-        <v>170.8</v>
-      </c>
-      <c r="E109" s="3">
-        <f t="shared" si="2"/>
-        <v>180.8</v>
-      </c>
-      <c r="G109" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>178.4</v>
-      </c>
+      <c r="A109" s="2"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
-        <v>109</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" s="3">
-        <v>129.80000000000001</v>
-      </c>
-      <c r="E110" s="3">
-        <f t="shared" si="2"/>
-        <v>139.80000000000001</v>
-      </c>
-      <c r="G110" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>163</v>
-      </c>
+      <c r="A110" s="2"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="2">
-        <v>110</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D111" s="3">
-        <v>44.2</v>
-      </c>
-      <c r="E111" s="3">
-        <f t="shared" si="2"/>
-        <v>54.2</v>
-      </c>
-      <c r="G111" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>72.100000000000009</v>
-      </c>
+      <c r="A111" s="2"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
-        <v>111</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="3">
-        <v>19.900000000000002</v>
-      </c>
-      <c r="E112" s="3">
-        <f t="shared" si="2"/>
-        <v>29.900000000000002</v>
-      </c>
-      <c r="G112" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>133.30000000000001</v>
-      </c>
+      <c r="A112" s="2"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="G112" s="3"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="2">
-        <v>112</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D113" s="3">
-        <v>123.5</v>
-      </c>
-      <c r="E113" s="3">
-        <f t="shared" si="2"/>
-        <v>133.5</v>
-      </c>
-      <c r="G113" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>81</v>
-      </c>
+      <c r="A113" s="2"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="2">
-        <v>113</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D114" s="3">
-        <v>152.30000000000001</v>
-      </c>
-      <c r="E114" s="3">
-        <f t="shared" si="2"/>
-        <v>162.30000000000001</v>
-      </c>
-      <c r="G114" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>89.600000000000009</v>
-      </c>
+      <c r="A114" s="2"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="2">
-        <v>114</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D115" s="3">
-        <v>122.5</v>
-      </c>
-      <c r="E115" s="3">
-        <f t="shared" si="2"/>
-        <v>132.5</v>
-      </c>
-      <c r="G115" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>37.200000000000003</v>
-      </c>
+      <c r="A115" s="2"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="2">
-        <v>115</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D116" s="3">
-        <v>142.70000000000002</v>
-      </c>
-      <c r="E116" s="3">
-        <f t="shared" si="2"/>
-        <v>152.70000000000002</v>
-      </c>
-      <c r="G116" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>171.9</v>
-      </c>
+      <c r="A116" s="2"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="G116" s="3"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="2">
-        <v>116</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D117" s="3">
-        <v>20.700000000000003</v>
-      </c>
-      <c r="E117" s="3">
-        <f t="shared" si="2"/>
-        <v>30.700000000000003</v>
-      </c>
-      <c r="G117" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>85.300000000000011</v>
-      </c>
+      <c r="A117" s="2"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="G117" s="3"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="2">
-        <v>117</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D118" s="3">
-        <v>102.4</v>
-      </c>
-      <c r="E118" s="3">
-        <f t="shared" si="2"/>
-        <v>112.4</v>
-      </c>
-      <c r="G118" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>186.60000000000002</v>
-      </c>
+      <c r="A118" s="2"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="G118" s="3"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="2">
-        <v>118</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D119" s="3">
-        <v>195.60000000000002</v>
-      </c>
-      <c r="E119" s="3">
-        <f t="shared" si="2"/>
-        <v>205.60000000000002</v>
-      </c>
-      <c r="G119" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>89.800000000000011</v>
-      </c>
+      <c r="A119" s="2"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="G119" s="3"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="2">
-        <v>119</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D120" s="3">
-        <v>78.100000000000009</v>
-      </c>
-      <c r="E120" s="3">
-        <f t="shared" si="2"/>
-        <v>88.100000000000009</v>
-      </c>
-      <c r="G120" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>131.6</v>
-      </c>
+      <c r="A120" s="2"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="G120" s="3"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
-        <v>120</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D121" s="3">
-        <v>112.5</v>
-      </c>
-      <c r="E121" s="3">
-        <f t="shared" si="2"/>
-        <v>122.5</v>
-      </c>
-      <c r="G121" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>114.4</v>
-      </c>
+      <c r="A121" s="2"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="G121" s="3"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
-        <v>121</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D122" s="3">
-        <v>182.20000000000002</v>
-      </c>
-      <c r="E122" s="3">
-        <f t="shared" si="2"/>
-        <v>192.20000000000002</v>
-      </c>
-      <c r="G122" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>66.7</v>
-      </c>
+      <c r="A122" s="2"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="G122" s="3"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
-        <v>122</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="3">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="E123" s="3">
-        <f t="shared" si="2"/>
-        <v>86.4</v>
-      </c>
-      <c r="G123" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>45.400000000000006</v>
-      </c>
+      <c r="A123" s="2"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="G123" s="3"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
-        <v>123</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D124" s="3">
-        <v>52.7</v>
-      </c>
-      <c r="E124" s="3">
-        <f t="shared" si="2"/>
-        <v>62.7</v>
-      </c>
-      <c r="G124" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>57.2</v>
-      </c>
+      <c r="A124" s="2"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="G124" s="3"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
-        <v>124</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D125" s="3">
-        <v>157.9</v>
-      </c>
-      <c r="E125" s="3">
-        <f t="shared" si="2"/>
-        <v>167.9</v>
-      </c>
-      <c r="G125" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>144.70000000000002</v>
-      </c>
+      <c r="A125" s="2"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="G125" s="3"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="2">
-        <v>125</v>
-      </c>
-      <c r="B126" s="1">
-        <v>2</v>
-      </c>
-      <c r="C126" s="1">
-        <v>6</v>
-      </c>
-      <c r="D126" s="3">
-        <v>145.1</v>
-      </c>
-      <c r="E126" s="3">
-        <f t="shared" si="2"/>
-        <v>155.1</v>
-      </c>
-      <c r="G126" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>23.1</v>
-      </c>
+      <c r="A126" s="2"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="G126" s="3"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
-        <v>126</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D127" s="3">
-        <v>22.6</v>
-      </c>
-      <c r="E127" s="3">
-        <f t="shared" si="2"/>
-        <v>32.6</v>
-      </c>
-      <c r="G127" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>132.9</v>
-      </c>
+      <c r="A127" s="2"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="G127" s="3"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="2">
-        <v>127</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D128" s="3">
-        <v>91.2</v>
-      </c>
-      <c r="E128" s="3">
-        <f t="shared" si="2"/>
-        <v>101.2</v>
-      </c>
-      <c r="G128" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>180.4</v>
-      </c>
+      <c r="A128" s="2"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="G128" s="3"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="2">
-        <v>128</v>
-      </c>
-      <c r="B129" s="1">
-        <v>3</v>
-      </c>
-      <c r="C129" s="1">
-        <v>2</v>
-      </c>
-      <c r="D129" s="3">
-        <v>88.800000000000011</v>
-      </c>
-      <c r="E129" s="3">
-        <f t="shared" si="2"/>
-        <v>98.800000000000011</v>
-      </c>
-      <c r="G129" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>119.7</v>
-      </c>
+      <c r="A129" s="2"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="G129" s="3"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="2">
-        <v>129</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D130" s="3">
-        <v>172.5</v>
-      </c>
-      <c r="E130" s="3">
-        <f t="shared" si="2"/>
-        <v>182.5</v>
-      </c>
-      <c r="G130" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>139</v>
-      </c>
+      <c r="A130" s="2"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="G130" s="3"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="2">
-        <v>130</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D131" s="3">
-        <v>152.9</v>
-      </c>
-      <c r="E131" s="3">
-        <f t="shared" ref="E131:E194" si="4">D131+10</f>
-        <v>162.9</v>
-      </c>
-      <c r="G131" s="3">
-        <f t="shared" ref="G131:G151" ca="1" si="5">FLOOR( RAND()*200,0.1)</f>
-        <v>51.5</v>
-      </c>
+      <c r="A131" s="2"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="G131" s="3"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
-        <v>131</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" s="3">
-        <v>23.1</v>
-      </c>
-      <c r="E132" s="3">
-        <f t="shared" si="4"/>
-        <v>33.1</v>
-      </c>
-      <c r="G132" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>123.30000000000001</v>
-      </c>
+      <c r="A132" s="2"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="G132" s="3"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
-        <v>132</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" s="3">
-        <v>103.9</v>
-      </c>
-      <c r="E133" s="3">
-        <f t="shared" si="4"/>
-        <v>113.9</v>
-      </c>
-      <c r="G133" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>196.8</v>
-      </c>
+      <c r="A133" s="2"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="G133" s="3"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
-        <v>133</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" s="3">
-        <v>162.30000000000001</v>
-      </c>
-      <c r="E134" s="3">
-        <f t="shared" si="4"/>
-        <v>172.3</v>
-      </c>
-      <c r="G134" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>177.8</v>
-      </c>
+      <c r="A134" s="2"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="G134" s="3"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="2">
-        <v>134</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="3">
-        <v>68.7</v>
-      </c>
-      <c r="E135" s="3">
-        <f t="shared" si="4"/>
-        <v>78.7</v>
-      </c>
-      <c r="G135" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.7</v>
-      </c>
+      <c r="A135" s="2"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="G135" s="3"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
-        <v>135</v>
-      </c>
-      <c r="B136" s="1">
-        <v>4</v>
-      </c>
-      <c r="C136" s="1">
-        <v>3</v>
-      </c>
-      <c r="D136" s="3">
-        <v>179.70000000000002</v>
-      </c>
-      <c r="E136" s="3">
-        <f t="shared" si="4"/>
-        <v>189.70000000000002</v>
-      </c>
-      <c r="G136" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>139.80000000000001</v>
-      </c>
+      <c r="A136" s="2"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="G136" s="3"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
-        <v>136</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D137" s="3">
-        <v>23.400000000000002</v>
-      </c>
-      <c r="E137" s="3">
-        <f t="shared" si="4"/>
-        <v>33.400000000000006</v>
-      </c>
-      <c r="G137" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>48.7</v>
-      </c>
+      <c r="A137" s="2"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="G137" s="3"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
-        <v>137</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D138" s="3">
-        <v>131.1</v>
-      </c>
-      <c r="E138" s="3">
-        <f t="shared" si="4"/>
-        <v>141.1</v>
-      </c>
-      <c r="G138" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>13.4</v>
-      </c>
+      <c r="A138" s="2"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="G138" s="3"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
-        <v>138</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D139" s="3">
-        <v>49.900000000000006</v>
-      </c>
-      <c r="E139" s="3">
-        <f t="shared" si="4"/>
-        <v>59.900000000000006</v>
-      </c>
-      <c r="G139" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>87.7</v>
-      </c>
+      <c r="A139" s="2"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="G139" s="3"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
-        <v>139</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D140" s="3">
-        <v>52.6</v>
-      </c>
-      <c r="E140" s="3">
-        <f t="shared" si="4"/>
-        <v>62.6</v>
-      </c>
-      <c r="G140" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.1</v>
-      </c>
+      <c r="A140" s="2"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="G140" s="3"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
-        <v>140</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D141" s="3">
-        <v>123.9</v>
-      </c>
-      <c r="E141" s="3">
-        <f t="shared" si="4"/>
-        <v>133.9</v>
-      </c>
-      <c r="G141" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>124.7</v>
-      </c>
+      <c r="A141" s="2"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="G141" s="3"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
-        <v>141</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D142" s="3">
-        <v>179.10000000000002</v>
-      </c>
-      <c r="E142" s="3">
-        <f t="shared" si="4"/>
-        <v>189.10000000000002</v>
-      </c>
-      <c r="G142" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>58.900000000000006</v>
-      </c>
+      <c r="A142" s="2"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="G142" s="3"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
-        <v>142</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="3">
-        <v>182.5</v>
-      </c>
-      <c r="E143" s="3">
-        <f t="shared" si="4"/>
-        <v>192.5</v>
-      </c>
-      <c r="G143" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>123.10000000000001</v>
-      </c>
+      <c r="A143" s="2"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="G143" s="3"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
-        <v>143</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D144" s="3">
-        <v>109.30000000000001</v>
-      </c>
-      <c r="E144" s="3">
-        <f t="shared" si="4"/>
-        <v>119.30000000000001</v>
-      </c>
-      <c r="G144" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>164.60000000000002</v>
-      </c>
+      <c r="A144" s="2"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="G144" s="3"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
-        <v>144</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D145" s="3">
-        <v>154.70000000000002</v>
-      </c>
-      <c r="E145" s="3">
-        <f t="shared" si="4"/>
-        <v>164.70000000000002</v>
-      </c>
-      <c r="G145" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>71.100000000000009</v>
-      </c>
+      <c r="A145" s="2"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="G145" s="3"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="2">
-        <v>145</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D146" s="3">
-        <v>189.70000000000002</v>
-      </c>
-      <c r="E146" s="3">
-        <f t="shared" si="4"/>
-        <v>199.70000000000002</v>
-      </c>
-      <c r="G146" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>171</v>
-      </c>
+      <c r="A146" s="2"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="G146" s="3"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="2">
-        <v>146</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D147" s="3">
-        <v>6.1000000000000005</v>
-      </c>
-      <c r="E147" s="3">
-        <f t="shared" si="4"/>
-        <v>16.100000000000001</v>
-      </c>
-      <c r="G147" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>47.400000000000006</v>
-      </c>
+      <c r="A147" s="2"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="G147" s="3"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="2">
-        <v>147</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D148" s="3">
-        <v>59.7</v>
-      </c>
-      <c r="E148" s="3">
-        <f t="shared" si="4"/>
-        <v>69.7</v>
-      </c>
-      <c r="G148" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>112.2</v>
-      </c>
+      <c r="A148" s="2"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="G148" s="3"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="2">
-        <v>148</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D149" s="3">
-        <v>144</v>
-      </c>
-      <c r="E149" s="3">
-        <f t="shared" si="4"/>
-        <v>154</v>
-      </c>
-      <c r="G149" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>96.2</v>
-      </c>
+      <c r="A149" s="2"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="G149" s="3"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="2">
-        <v>149</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D150" s="3">
-        <v>136.70000000000002</v>
-      </c>
-      <c r="E150" s="3">
-        <f t="shared" si="4"/>
-        <v>146.70000000000002</v>
-      </c>
-      <c r="G150" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>77.300000000000011</v>
-      </c>
+      <c r="A150" s="2"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="G150" s="3"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="2">
-        <v>150</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D151" s="3">
-        <v>126.4</v>
-      </c>
-      <c r="E151" s="3">
-        <f t="shared" si="4"/>
-        <v>136.4</v>
-      </c>
-      <c r="G151" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>170</v>
-      </c>
+      <c r="A151" s="2"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="G151" s="3"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="2">
-        <v>151</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D152" s="3">
-        <v>0</v>
-      </c>
-      <c r="E152" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A152" s="2"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="2">
-        <v>152</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="3">
-        <v>0</v>
-      </c>
-      <c r="E153" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A153" s="2"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="2">
-        <v>153</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D154" s="3">
-        <v>0</v>
-      </c>
-      <c r="E154" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A154" s="2"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="2">
-        <v>154</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D155" s="3">
-        <v>0</v>
-      </c>
-      <c r="E155" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A155" s="2"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="2">
-        <v>155</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D156" s="3">
-        <v>0</v>
-      </c>
-      <c r="E156" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A156" s="2"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="2">
-        <v>156</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D157" s="3">
-        <v>0</v>
-      </c>
-      <c r="E157" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A157" s="2"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="2">
-        <v>157</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D158" s="3">
-        <v>0</v>
-      </c>
-      <c r="E158" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A158" s="2"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="2">
-        <v>158</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D159" s="3">
-        <v>0</v>
-      </c>
-      <c r="E159" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A159" s="2"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="2">
-        <v>159</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D160" s="3">
-        <v>0</v>
-      </c>
-      <c r="E160" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A160" s="2"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="2">
-        <v>160</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D161" s="3">
-        <v>0</v>
-      </c>
-      <c r="E161" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A161" s="2"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="2">
-        <v>161</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D162" s="3">
-        <v>0</v>
-      </c>
-      <c r="E162" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A162" s="2"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="2">
-        <v>162</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" s="3">
-        <v>0</v>
-      </c>
-      <c r="E163" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A163" s="2"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="2">
-        <v>163</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D164" s="3">
-        <v>0</v>
-      </c>
-      <c r="E164" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A164" s="2"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="2">
-        <v>164</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D165" s="3">
-        <v>0</v>
-      </c>
-      <c r="E165" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A165" s="2"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="2">
-        <v>165</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D166" s="3">
-        <v>0</v>
-      </c>
-      <c r="E166" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A166" s="2"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="2">
-        <v>166</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D167" s="3">
-        <v>0</v>
-      </c>
-      <c r="E167" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A167" s="2"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="2">
-        <v>167</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D168" s="3">
-        <v>0</v>
-      </c>
-      <c r="E168" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A168" s="2"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="2">
-        <v>168</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D169" s="3">
-        <v>0</v>
-      </c>
-      <c r="E169" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A169" s="2"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="2">
-        <v>169</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D170" s="3">
-        <v>0</v>
-      </c>
-      <c r="E170" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A170" s="2"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="2">
-        <v>170</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D171" s="3">
-        <v>0</v>
-      </c>
-      <c r="E171" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A171" s="2"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="2">
-        <v>171</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D172" s="3">
-        <v>0</v>
-      </c>
-      <c r="E172" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A172" s="2"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="2">
-        <v>172</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D173" s="3">
-        <v>0</v>
-      </c>
-      <c r="E173" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A173" s="2"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="2">
-        <v>173</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D174" s="3">
-        <v>0</v>
-      </c>
-      <c r="E174" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A174" s="2"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="2">
-        <v>174</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D175" s="3">
-        <v>0</v>
-      </c>
-      <c r="E175" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A175" s="2"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="2">
-        <v>175</v>
-      </c>
-      <c r="B176" s="1">
-        <v>2</v>
-      </c>
-      <c r="C176" s="1">
-        <v>6</v>
-      </c>
-      <c r="D176" s="3">
-        <v>0</v>
-      </c>
-      <c r="E176" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A176" s="2"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="2">
-        <v>176</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D177" s="3">
-        <v>0</v>
-      </c>
-      <c r="E177" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A177" s="2"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="2">
-        <v>177</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D178" s="3">
-        <v>0</v>
-      </c>
-      <c r="E178" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A178" s="2"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="2">
-        <v>178</v>
-      </c>
-      <c r="B179" s="1">
-        <v>3</v>
-      </c>
-      <c r="C179" s="1">
-        <v>2</v>
-      </c>
-      <c r="D179" s="3">
-        <v>0</v>
-      </c>
-      <c r="E179" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A179" s="2"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="2">
-        <v>179</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D180" s="3">
-        <v>0</v>
-      </c>
-      <c r="E180" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A180" s="2"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="2">
-        <v>180</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D181" s="3">
-        <v>0</v>
-      </c>
-      <c r="E181" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A181" s="2"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="2">
-        <v>181</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D182" s="3">
-        <v>0</v>
-      </c>
-      <c r="E182" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A182" s="2"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="2">
-        <v>182</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D183" s="3">
-        <v>0</v>
-      </c>
-      <c r="E183" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A183" s="2"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="2">
-        <v>183</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D184" s="3">
-        <v>0</v>
-      </c>
-      <c r="E184" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A184" s="2"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="2">
-        <v>184</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" s="3">
-        <v>0</v>
-      </c>
-      <c r="E185" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A185" s="2"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="2">
-        <v>185</v>
-      </c>
-      <c r="B186" s="1">
-        <v>4</v>
-      </c>
-      <c r="C186" s="1">
-        <v>3</v>
-      </c>
-      <c r="D186" s="3">
-        <v>0</v>
-      </c>
-      <c r="E186" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A186" s="2"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="2">
-        <v>186</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D187" s="3">
-        <v>0</v>
-      </c>
-      <c r="E187" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A187" s="2"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="2">
-        <v>187</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D188" s="3">
-        <v>0</v>
-      </c>
-      <c r="E188" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A188" s="2"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="2">
-        <v>188</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D189" s="3">
-        <v>0</v>
-      </c>
-      <c r="E189" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A189" s="2"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="2">
-        <v>189</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D190" s="3">
-        <v>0</v>
-      </c>
-      <c r="E190" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A190" s="2"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="2">
-        <v>190</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D191" s="3">
-        <v>0</v>
-      </c>
-      <c r="E191" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A191" s="2"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="2">
-        <v>191</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D192" s="3">
-        <v>0</v>
-      </c>
-      <c r="E192" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A192" s="2"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="2">
-        <v>192</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D193" s="3">
-        <v>0</v>
-      </c>
-      <c r="E193" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A193" s="2"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="2">
-        <v>193</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D194" s="3">
-        <v>0</v>
-      </c>
-      <c r="E194" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+      <c r="A194" s="2"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="2">
-        <v>194</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D195" s="3">
-        <v>0</v>
-      </c>
-      <c r="E195" s="3">
-        <f t="shared" ref="E195:E201" si="6">D195+10</f>
-        <v>10</v>
-      </c>
+      <c r="A195" s="2"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="2">
-        <v>195</v>
-      </c>
-      <c r="B196" s="1">
-        <v>2</v>
-      </c>
-      <c r="C196" s="1">
-        <v>6</v>
-      </c>
-      <c r="D196" s="3">
-        <v>0</v>
-      </c>
-      <c r="E196" s="3">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
+      <c r="A196" s="2"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="2">
-        <v>196</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D197" s="3">
-        <v>0</v>
-      </c>
-      <c r="E197" s="3">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
+      <c r="A197" s="2"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="2">
-        <v>197</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D198" s="3">
-        <v>0</v>
-      </c>
-      <c r="E198" s="3">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
+      <c r="A198" s="2"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="2">
-        <v>198</v>
-      </c>
-      <c r="B199" s="1">
-        <v>3</v>
-      </c>
-      <c r="C199" s="1">
-        <v>2</v>
-      </c>
-      <c r="D199" s="3">
-        <v>0</v>
-      </c>
-      <c r="E199" s="3">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
+      <c r="A199" s="2"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="2">
-        <v>199</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D200" s="3">
-        <v>0</v>
-      </c>
-      <c r="E200" s="3">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
+      <c r="A200" s="2"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="2">
-        <v>200</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D201" s="3">
-        <v>0</v>
-      </c>
-      <c r="E201" s="3">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
+      <c r="A201" s="2"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5012,7 +3596,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>

--- a/Input00.xlsx
+++ b/Input00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCTemp\GPHH-Matrix-Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098585C3-B545-4BB9-99E4-8BE636C256F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D932AB61-D820-440B-82B2-DCB0430A775A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8835" yWindow="1050" windowWidth="23040" windowHeight="17715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52:D101"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -659,10 +659,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="3">
-        <f ca="1">FLOOR( RAND()*200,0.1)</f>
-        <v>34.300000000000004</v>
-      </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -682,10 +679,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G66" ca="1" si="1">FLOOR( RAND()*200,0.1)</f>
-        <v>111.60000000000001</v>
-      </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -705,10 +699,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>77.800000000000011</v>
-      </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -728,10 +719,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>107.60000000000001</v>
-      </c>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -751,10 +739,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.8000000000000007</v>
-      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -774,10 +759,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>56.5</v>
-      </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -797,10 +779,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>38.200000000000003</v>
-      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -820,10 +799,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>103.80000000000001</v>
-      </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -843,10 +819,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.600000000000001</v>
-      </c>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -866,10 +839,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>174.70000000000002</v>
-      </c>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -889,10 +859,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.1000000000000005</v>
-      </c>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -912,10 +879,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>143.20000000000002</v>
-      </c>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -935,10 +899,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.100000000000001</v>
-      </c>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -958,10 +919,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>100.2</v>
-      </c>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -981,10 +939,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>194.3</v>
-      </c>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -1004,10 +959,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.2000000000000011</v>
-      </c>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -1027,10 +979,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>78.400000000000006</v>
-      </c>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -1049,10 +998,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>150.4</v>
-      </c>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
@@ -1071,10 +1017,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G20" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>69.7</v>
-      </c>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -1093,10 +1036,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>196.60000000000002</v>
-      </c>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -1115,10 +1055,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G22" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>168.60000000000002</v>
-      </c>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -1137,10 +1074,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G23" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.6000000000000005</v>
-      </c>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -1159,10 +1093,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G24" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>162.4</v>
-      </c>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -1181,10 +1112,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G25" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>93.600000000000009</v>
-      </c>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -1203,10 +1131,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G26" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
@@ -1225,10 +1150,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G27" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>83.100000000000009</v>
-      </c>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
@@ -1247,10 +1169,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G28" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.9</v>
-      </c>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
@@ -1269,10 +1188,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>38.400000000000006</v>
-      </c>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -1291,10 +1207,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G30" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>20.400000000000002</v>
-      </c>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
@@ -1313,10 +1226,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G31" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>146.6</v>
-      </c>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
@@ -1335,10 +1245,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G32" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>59</v>
-      </c>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -1357,10 +1264,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G33" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
@@ -1379,10 +1283,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G34" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>91.7</v>
-      </c>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
@@ -1401,10 +1302,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G35" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>100.9</v>
-      </c>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
@@ -1423,10 +1321,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G36" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>46.1</v>
-      </c>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
@@ -1445,10 +1340,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G37" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.7000000000000011</v>
-      </c>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
@@ -1467,10 +1359,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G38" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>83.5</v>
-      </c>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
@@ -1489,10 +1378,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G39" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>62.300000000000004</v>
-      </c>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
@@ -1511,10 +1397,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G40" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>58.6</v>
-      </c>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
@@ -1533,10 +1416,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G41" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>169.4</v>
-      </c>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
@@ -1555,10 +1435,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G42" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>19.600000000000001</v>
-      </c>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
@@ -1577,10 +1454,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G43" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>50.300000000000004</v>
-      </c>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
@@ -1599,10 +1473,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G44" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>143.4</v>
-      </c>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
@@ -1621,10 +1492,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G45" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>189.10000000000002</v>
-      </c>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
@@ -1643,10 +1511,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G46" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>90.5</v>
-      </c>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
@@ -1665,10 +1530,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G47" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>17.100000000000001</v>
-      </c>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
@@ -1687,10 +1549,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G48" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>75.900000000000006</v>
-      </c>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
@@ -1709,10 +1568,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G49" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>125.7</v>
-      </c>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
@@ -1731,10 +1587,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G50" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>51.800000000000004</v>
-      </c>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
@@ -1753,10 +1606,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G51" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>82.9</v>
-      </c>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
@@ -1770,16 +1620,13 @@
       </c>
       <c r="D52" s="3">
         <f ca="1">FLOOR( RAND()*200,0.1)</f>
-        <v>110.10000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>120.10000000000001</v>
-      </c>
-      <c r="G52" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>15.600000000000001</v>
-      </c>
+        <v>28.6</v>
+      </c>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
@@ -1792,17 +1639,14 @@
         <v>8</v>
       </c>
       <c r="D53" s="3">
-        <f t="shared" ref="D53:D101" ca="1" si="2">FLOOR( RAND()*200,0.1)</f>
-        <v>158.70000000000002</v>
+        <f t="shared" ref="D53:D101" ca="1" si="1">FLOOR( RAND()*200,0.1)</f>
+        <v>113.30000000000001</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>168.70000000000002</v>
-      </c>
-      <c r="G53" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>123.9</v>
-      </c>
+        <v>123.30000000000001</v>
+      </c>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
@@ -1815,17 +1659,14 @@
         <v>16</v>
       </c>
       <c r="D54" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>146.4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>14.200000000000001</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>156.4</v>
-      </c>
-      <c r="G54" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45.1</v>
-      </c>
+        <v>24.200000000000003</v>
+      </c>
+      <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
@@ -1838,17 +1679,14 @@
         <v>18</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>119.10000000000001</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>100.5</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>129.10000000000002</v>
-      </c>
-      <c r="G55" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>187.70000000000002</v>
-      </c>
+        <v>110.5</v>
+      </c>
+      <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
@@ -1861,17 +1699,14 @@
         <v>42</v>
       </c>
       <c r="D56" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>101</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>11.3</v>
-      </c>
-      <c r="G56" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>135.6</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
@@ -1884,17 +1719,14 @@
         <v>10</v>
       </c>
       <c r="D57" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>123.4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>116.60000000000001</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>133.4</v>
-      </c>
-      <c r="G57" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.9000000000000001</v>
-      </c>
+        <v>126.60000000000001</v>
+      </c>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
@@ -1907,17 +1739,14 @@
         <v>17</v>
       </c>
       <c r="D58" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>27.900000000000002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>102.9</v>
       </c>
       <c r="E58" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>37.900000000000006</v>
-      </c>
-      <c r="G58" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
+        <v>112.9</v>
+      </c>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
@@ -1930,17 +1759,14 @@
         <v>31</v>
       </c>
       <c r="D59" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>44.1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>15.3</v>
       </c>
       <c r="E59" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>54.1</v>
-      </c>
-      <c r="G59" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>142.9</v>
-      </c>
+        <v>25.3</v>
+      </c>
+      <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
@@ -1953,17 +1779,14 @@
         <v>16</v>
       </c>
       <c r="D60" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>125.10000000000001</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>79.800000000000011</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>135.10000000000002</v>
-      </c>
-      <c r="G60" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>41.900000000000006</v>
-      </c>
+        <v>89.800000000000011</v>
+      </c>
+      <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
@@ -1976,17 +1799,14 @@
         <v>39</v>
       </c>
       <c r="D61" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>91.9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>57.2</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>101.9</v>
-      </c>
-      <c r="G61" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.700000000000003</v>
-      </c>
+        <v>67.2</v>
+      </c>
+      <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
@@ -1999,17 +1819,14 @@
         <v>15</v>
       </c>
       <c r="D62" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11.200000000000001</v>
       </c>
       <c r="E62" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>21.3</v>
-      </c>
-      <c r="G62" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
-      </c>
+        <v>21.200000000000003</v>
+      </c>
+      <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
@@ -2022,17 +1839,14 @@
         <v>14</v>
       </c>
       <c r="D63" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>59.900000000000006</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6.1000000000000005</v>
       </c>
       <c r="E63" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>69.900000000000006</v>
-      </c>
-      <c r="G63" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.1</v>
-      </c>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
@@ -2045,17 +1859,14 @@
         <v>13</v>
       </c>
       <c r="D64" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>136.6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9.2000000000000011</v>
       </c>
       <c r="E64" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>146.6</v>
-      </c>
-      <c r="G64" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>189.60000000000002</v>
-      </c>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
@@ -2068,17 +1879,14 @@
         <v>44</v>
       </c>
       <c r="D65" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>129</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>152.70000000000002</v>
       </c>
       <c r="E65" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
-      </c>
-      <c r="G65" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>123.30000000000001</v>
-      </c>
+        <v>162.70000000000002</v>
+      </c>
+      <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
@@ -2091,17 +1899,14 @@
         <v>37</v>
       </c>
       <c r="D66" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>151.6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>114.10000000000001</v>
       </c>
       <c r="E66" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>161.6</v>
-      </c>
-      <c r="G66" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>47.300000000000004</v>
-      </c>
+        <v>124.10000000000001</v>
+      </c>
+      <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
@@ -2114,17 +1919,14 @@
         <v>36</v>
       </c>
       <c r="D67" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>64.8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>141.70000000000002</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" ref="E67:E101" ca="1" si="3">D67+10</f>
-        <v>74.8</v>
-      </c>
-      <c r="G67" s="3">
-        <f t="shared" ref="G67:G101" ca="1" si="4">FLOOR( RAND()*200,0.1)</f>
-        <v>171.3</v>
-      </c>
+        <f t="shared" ref="E67:E101" ca="1" si="2">D67+10</f>
+        <v>151.70000000000002</v>
+      </c>
+      <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
@@ -2137,17 +1939,14 @@
         <v>18</v>
       </c>
       <c r="D68" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>40.1</v>
+      </c>
+      <c r="E68" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>23.6</v>
-      </c>
-      <c r="E68" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>33.6</v>
-      </c>
-      <c r="G68" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>157</v>
-      </c>
+        <v>50.1</v>
+      </c>
+      <c r="G68" s="3"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
@@ -2160,17 +1959,14 @@
         <v>26</v>
       </c>
       <c r="D69" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>97.300000000000011</v>
+      </c>
+      <c r="E69" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>177.20000000000002</v>
-      </c>
-      <c r="E69" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>187.20000000000002</v>
-      </c>
-      <c r="G69" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>63.6</v>
-      </c>
+        <v>107.30000000000001</v>
+      </c>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
@@ -2183,17 +1979,14 @@
         <v>27</v>
       </c>
       <c r="D70" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>73.7</v>
+      </c>
+      <c r="E70" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>25.900000000000002</v>
-      </c>
-      <c r="E70" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.900000000000006</v>
-      </c>
-      <c r="G70" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>169.20000000000002</v>
-      </c>
+        <v>83.7</v>
+      </c>
+      <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
@@ -2206,17 +1999,14 @@
         <v>28</v>
       </c>
       <c r="D71" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>134.6</v>
+      </c>
+      <c r="E71" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>129.9</v>
-      </c>
-      <c r="E71" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>139.9</v>
-      </c>
-      <c r="G71" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>148.9</v>
-      </c>
+        <v>144.6</v>
+      </c>
+      <c r="G71" s="3"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
@@ -2229,17 +2019,14 @@
         <v>46</v>
       </c>
       <c r="D72" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>112.4</v>
+      </c>
+      <c r="E72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>144.5</v>
-      </c>
-      <c r="E72" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>154.5</v>
-      </c>
-      <c r="G72" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>93.7</v>
-      </c>
+        <v>122.4</v>
+      </c>
+      <c r="G72" s="3"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
@@ -2252,17 +2039,14 @@
         <v>8</v>
       </c>
       <c r="D73" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="E73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>52.6</v>
-      </c>
-      <c r="E73" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>62.6</v>
-      </c>
-      <c r="G73" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>199</v>
-      </c>
+        <v>25.5</v>
+      </c>
+      <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
@@ -2275,17 +2059,14 @@
         <v>16</v>
       </c>
       <c r="D74" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>38.5</v>
+      </c>
+      <c r="E74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>89.4</v>
-      </c>
-      <c r="E74" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>99.4</v>
-      </c>
-      <c r="G74" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>34.9</v>
-      </c>
+        <v>48.5</v>
+      </c>
+      <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
@@ -2298,17 +2079,14 @@
         <v>18</v>
       </c>
       <c r="D75" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>67.3</v>
+      </c>
+      <c r="E75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16.7</v>
-      </c>
-      <c r="E75" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>26.7</v>
-      </c>
-      <c r="G75" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>185.70000000000002</v>
-      </c>
+        <v>77.3</v>
+      </c>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
@@ -2321,17 +2099,14 @@
         <v>6</v>
       </c>
       <c r="D76" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>48.5</v>
+      </c>
+      <c r="E76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>29.3</v>
-      </c>
-      <c r="E76" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>39.299999999999997</v>
-      </c>
-      <c r="G76" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.7000000000000011</v>
-      </c>
+        <v>58.5</v>
+      </c>
+      <c r="G76" s="3"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
@@ -2344,17 +2119,14 @@
         <v>10</v>
       </c>
       <c r="D77" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.8</v>
+      </c>
+      <c r="E77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="E77" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G77" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>25.900000000000002</v>
-      </c>
+        <v>29.8</v>
+      </c>
+      <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
@@ -2367,17 +2139,14 @@
         <v>17</v>
       </c>
       <c r="D78" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>185.70000000000002</v>
+      </c>
+      <c r="E78" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>198.9</v>
-      </c>
-      <c r="E78" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>208.9</v>
-      </c>
-      <c r="G78" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>70.2</v>
-      </c>
+        <v>195.70000000000002</v>
+      </c>
+      <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
@@ -2390,17 +2159,14 @@
         <v>53</v>
       </c>
       <c r="D79" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>117.10000000000001</v>
+      </c>
+      <c r="E79" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>72.8</v>
-      </c>
-      <c r="E79" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>82.8</v>
-      </c>
-      <c r="G79" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>182.10000000000002</v>
-      </c>
+        <v>127.10000000000001</v>
+      </c>
+      <c r="G79" s="3"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
@@ -2413,17 +2179,14 @@
         <v>16</v>
       </c>
       <c r="D80" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>61.400000000000006</v>
+      </c>
+      <c r="E80" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>32.4</v>
-      </c>
-      <c r="E80" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42.4</v>
-      </c>
-      <c r="G80" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>149</v>
-      </c>
+        <v>71.400000000000006</v>
+      </c>
+      <c r="G80" s="3"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
@@ -2436,17 +2199,14 @@
         <v>47</v>
       </c>
       <c r="D81" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>122.2</v>
+      </c>
+      <c r="E81" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>132.4</v>
-      </c>
-      <c r="E81" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>142.4</v>
-      </c>
-      <c r="G81" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>62.2</v>
-      </c>
+        <v>132.19999999999999</v>
+      </c>
+      <c r="G81" s="3"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
@@ -2459,17 +2219,14 @@
         <v>15</v>
       </c>
       <c r="D82" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>136.30000000000001</v>
+      </c>
+      <c r="E82" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>11.700000000000001</v>
-      </c>
-      <c r="E82" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>21.700000000000003</v>
-      </c>
-      <c r="G82" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>106.60000000000001</v>
-      </c>
+        <v>146.30000000000001</v>
+      </c>
+      <c r="G82" s="3"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
@@ -2482,17 +2239,14 @@
         <v>14</v>
       </c>
       <c r="D83" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>20.5</v>
+      </c>
+      <c r="E83" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>112.7</v>
-      </c>
-      <c r="E83" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>122.7</v>
-      </c>
-      <c r="G83" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>126.5</v>
-      </c>
+        <v>30.5</v>
+      </c>
+      <c r="G83" s="3"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
@@ -2505,17 +2259,14 @@
         <v>13</v>
       </c>
       <c r="D84" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>185.20000000000002</v>
+      </c>
+      <c r="E84" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>33.700000000000003</v>
-      </c>
-      <c r="E84" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>43.7</v>
-      </c>
-      <c r="G84" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>12.3</v>
-      </c>
+        <v>195.20000000000002</v>
+      </c>
+      <c r="G84" s="3"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
@@ -2528,17 +2279,14 @@
         <v>12</v>
       </c>
       <c r="D85" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="E85" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>156.80000000000001</v>
-      </c>
-      <c r="E85" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>166.8</v>
-      </c>
-      <c r="G85" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>62</v>
-      </c>
+        <v>99.100000000000009</v>
+      </c>
+      <c r="G85" s="3"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
@@ -2551,17 +2299,14 @@
         <v>55</v>
       </c>
       <c r="D86" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>93.800000000000011</v>
+      </c>
+      <c r="E86" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>100.7</v>
-      </c>
-      <c r="E86" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>110.7</v>
-      </c>
-      <c r="G86" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>148</v>
-      </c>
+        <v>103.80000000000001</v>
+      </c>
+      <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
@@ -2574,17 +2319,14 @@
         <v>49</v>
       </c>
       <c r="D87" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>23.6</v>
+      </c>
+      <c r="E87" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>179.70000000000002</v>
-      </c>
-      <c r="E87" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>189.70000000000002</v>
-      </c>
-      <c r="G87" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>33.200000000000003</v>
-      </c>
+        <v>33.6</v>
+      </c>
+      <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
@@ -2597,17 +2339,14 @@
         <v>18</v>
       </c>
       <c r="D88" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>191.60000000000002</v>
+      </c>
+      <c r="E88" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>77.800000000000011</v>
-      </c>
-      <c r="E88" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>87.800000000000011</v>
-      </c>
-      <c r="G88" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>193.10000000000002</v>
-      </c>
+        <v>201.60000000000002</v>
+      </c>
+      <c r="G88" s="3"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
@@ -2620,17 +2359,14 @@
         <v>26</v>
       </c>
       <c r="D89" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>184.10000000000002</v>
+      </c>
+      <c r="E89" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>164.4</v>
-      </c>
-      <c r="E89" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>174.4</v>
-      </c>
-      <c r="G89" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.1</v>
-      </c>
+        <v>194.10000000000002</v>
+      </c>
+      <c r="G89" s="3"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
@@ -2643,17 +2379,14 @@
         <v>27</v>
       </c>
       <c r="D90" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>26.900000000000002</v>
+      </c>
+      <c r="E90" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>98.2</v>
-      </c>
-      <c r="E90" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>108.2</v>
-      </c>
-      <c r="G90" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>86.5</v>
-      </c>
+        <v>36.900000000000006</v>
+      </c>
+      <c r="G90" s="3"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
@@ -2666,17 +2399,14 @@
         <v>28</v>
       </c>
       <c r="D91" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>166.3</v>
+      </c>
+      <c r="E91" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>103.60000000000001</v>
-      </c>
-      <c r="E91" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>113.60000000000001</v>
-      </c>
-      <c r="G91" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>33</v>
-      </c>
+        <v>176.3</v>
+      </c>
+      <c r="G91" s="3"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
@@ -2689,17 +2419,14 @@
         <v>46</v>
       </c>
       <c r="D92" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>111.10000000000001</v>
+      </c>
+      <c r="E92" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>111.7</v>
-      </c>
-      <c r="E92" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>121.7</v>
-      </c>
-      <c r="G92" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>42.800000000000004</v>
-      </c>
+        <v>121.10000000000001</v>
+      </c>
+      <c r="G92" s="3"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
@@ -2712,17 +2439,14 @@
         <v>8</v>
       </c>
       <c r="D93" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="E93" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42.400000000000006</v>
-      </c>
-      <c r="E93" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>52.400000000000006</v>
-      </c>
-      <c r="G93" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.7</v>
-      </c>
+        <v>22.5</v>
+      </c>
+      <c r="G93" s="3"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
@@ -2735,17 +2459,14 @@
         <v>16</v>
       </c>
       <c r="D94" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>112.5</v>
+      </c>
+      <c r="E94" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="E94" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="G94" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>87.5</v>
-      </c>
+        <v>122.5</v>
+      </c>
+      <c r="G94" s="3"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
@@ -2758,17 +2479,14 @@
         <v>18</v>
       </c>
       <c r="D95" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="E95" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>62.6</v>
-      </c>
-      <c r="E95" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>72.599999999999994</v>
-      </c>
-      <c r="G95" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>146.70000000000002</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G95" s="3"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
@@ -2781,17 +2499,14 @@
         <v>6</v>
       </c>
       <c r="D96" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>163.9</v>
+      </c>
+      <c r="E96" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>197.10000000000002</v>
-      </c>
-      <c r="E96" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>207.10000000000002</v>
-      </c>
-      <c r="G96" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>170.20000000000002</v>
-      </c>
+        <v>173.9</v>
+      </c>
+      <c r="G96" s="3"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
@@ -2804,17 +2519,14 @@
         <v>10</v>
       </c>
       <c r="D97" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>147.5</v>
+      </c>
+      <c r="E97" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>142.80000000000001</v>
-      </c>
-      <c r="E97" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>152.80000000000001</v>
-      </c>
-      <c r="G97" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>15.600000000000001</v>
-      </c>
+        <v>157.5</v>
+      </c>
+      <c r="G97" s="3"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
@@ -2827,17 +2539,14 @@
         <v>17</v>
       </c>
       <c r="D98" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>29.8</v>
+      </c>
+      <c r="E98" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>58.5</v>
-      </c>
-      <c r="E98" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>68.5</v>
-      </c>
-      <c r="G98" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>131.6</v>
-      </c>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="G98" s="3"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
@@ -2850,17 +2559,14 @@
         <v>57</v>
       </c>
       <c r="D99" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>112.7</v>
+      </c>
+      <c r="E99" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>111.9</v>
-      </c>
-      <c r="E99" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>121.9</v>
-      </c>
-      <c r="G99" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>144.9</v>
-      </c>
+        <v>122.7</v>
+      </c>
+      <c r="G99" s="3"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
@@ -2873,17 +2579,14 @@
         <v>16</v>
       </c>
       <c r="D100" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>99.100000000000009</v>
+      </c>
+      <c r="E100" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>193.20000000000002</v>
-      </c>
-      <c r="E100" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>203.20000000000002</v>
-      </c>
-      <c r="G100" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>56.1</v>
-      </c>
+        <v>109.10000000000001</v>
+      </c>
+      <c r="G100" s="3"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
@@ -2896,17 +2599,14 @@
         <v>47</v>
       </c>
       <c r="D101" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>23.200000000000003</v>
+      </c>
+      <c r="E101" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>30.1</v>
-      </c>
-      <c r="E101" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>40.1</v>
-      </c>
-      <c r="G101" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>131.4</v>
-      </c>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G101" s="3"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
